--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2B5B2-7464-4315-AD6C-6C8ED126700B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019BBD9F-4180-4A3C-9287-8C096C9E271B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Kết thúc planning, analysing &amp; training</t>
-  </si>
-  <si>
-    <t>Số giờ hoàn thành công việc (Giờ)</t>
   </si>
   <si>
     <t>Số ngày (ngày)</t>
@@ -176,86 +173,10 @@
     <t>Design use case diagram module 1</t>
   </si>
   <si>
-    <t>Code "Login" app</t>
-  </si>
-  <si>
-    <t>Code  "Login" website</t>
-  </si>
-  <si>
-    <t>Code "Logout" app</t>
-  </si>
-  <si>
-    <t>Code "Logout" website</t>
-  </si>
-  <si>
-    <t>Code "Search personnel" app</t>
-  </si>
-  <si>
-    <t>Code "View personnel" app</t>
-  </si>
-  <si>
-    <t>Code "Upload organizational chart" website</t>
-  </si>
-  <si>
-    <t>Code "View organizational chart" app</t>
-  </si>
-  <si>
-    <t>Code "Add company policy" website</t>
-  </si>
-  <si>
-    <t>Code "Edit company policy" website</t>
-  </si>
-  <si>
-    <t>Code "Delete company policy" website</t>
-  </si>
-  <si>
-    <t>Code "View company policy" app</t>
-  </si>
-  <si>
-    <t>Code "View company policy" website</t>
-  </si>
-  <si>
-    <t>Code "View personnel" website</t>
-  </si>
-  <si>
-    <t>Code "View organizational chart" website</t>
-  </si>
-  <si>
-    <t>Code "View account information" website</t>
-  </si>
-  <si>
     <t>Code "Add account" website</t>
   </si>
   <si>
     <t>Code "Edit account" website</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Anh Minh, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Quang Vương</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Đạt Huỳnh, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Quang Vương</t>
-    </r>
   </si>
   <si>
     <t>Test "Login" app</t>
@@ -316,29 +237,6 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Anh Minh, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Quang Vương, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Đạt Huỳnh  </t>
-    </r>
   </si>
   <si>
     <r>
@@ -426,6 +324,89 @@
   </si>
   <si>
     <t>Create schedule module 1</t>
+  </si>
+  <si>
+    <t>Số giờ hoàn thành công việc cá nhân (Giờ)</t>
+  </si>
+  <si>
+    <t>Số giờ hoàn thành công việc kế hoạch (Giờ)</t>
+  </si>
+  <si>
+    <t>Code Front-end "Login" app</t>
+  </si>
+  <si>
+    <t>Code Front-end "Logout" app</t>
+  </si>
+  <si>
+    <t>Code Front-end "Search personnel" app</t>
+  </si>
+  <si>
+    <t>Code Front-end "View organizational chart" app</t>
+  </si>
+  <si>
+    <t>Code Front-end "View personnel" app</t>
+  </si>
+  <si>
+    <t>Code Front-end "View company policy" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "Login" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "Logout" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "Search personnel" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "View personnel" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "View organizational chart" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "View company policy" app</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "Upload organizational chart" website</t>
+  </si>
+  <si>
+    <r>
+      <t>Anh Minh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "Login, logout" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "Add company policy" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "Edit company policy" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "Delete company policy" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "View company policy" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "View personnel" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "View organizational chart" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "View account information" website</t>
   </si>
 </sst>
 </file>
@@ -549,12 +530,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF7030A0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -652,6 +627,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF92D050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -961,7 +942,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1029,7 +1010,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,7 +1022,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,11 +1046,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1077,114 +1061,114 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1322,9 +1306,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$A$4:$A$61</c:f>
+              <c:f>'Dữ liệu dự án'!$A$4:$A$66</c:f>
               <c:strCache>
-                <c:ptCount val="58"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>Design prototype, sequence, use case description "Login" app</c:v>
                 </c:pt>
@@ -1389,114 +1373,129 @@
                   <c:v>Design use case diagram module 1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Code "Login" app</c:v>
+                  <c:v>Code Front-end "Login" app</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Code  "Login" website</c:v>
+                  <c:v>Code Front-end "Logout" app</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Code "Logout" app</c:v>
+                  <c:v>Code Front-end "Search personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Code "Logout" website</c:v>
+                  <c:v>Code Front-end "View personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Code "Search personnel" app</c:v>
+                  <c:v>Code Front-end "View organizational chart" app</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Code "View personnel" app</c:v>
+                  <c:v>Code Front-end "View company policy" app</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Code "Upload organizational chart" website</c:v>
+                  <c:v>Code Back-end "Login" app</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Code "View organizational chart" app</c:v>
+                  <c:v>Code Back-end "Logout" app</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Code "Add company policy" website</c:v>
+                  <c:v>Code Back-end "Search personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Code "Edit company policy" website</c:v>
+                  <c:v>Code Back-end "View personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Code "Delete company policy" website</c:v>
+                  <c:v>Code Back-end "View organizational chart" app</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Code "View company policy" app</c:v>
+                  <c:v>Code Back-end "View company policy" app</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Code "View company policy" website</c:v>
+                  <c:v>Code Front-end, back-end "Login, logout" website</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>Code "View personnel" website</c:v>
+                  <c:v>Code Front-end, back-end "Upload organizational chart" website</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Code "View organizational chart" website</c:v>
+                  <c:v>Code Front-end, back-end  "Add company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Code "View account information" website</c:v>
+                  <c:v>Code Front-end, back-end  "Edit company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>Code Front-end, back-end  "Delete company policy" website</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Code Front-end, back-end  "View company policy" website</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Code Front-end, back-end "View personnel" website</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Code Front-end, back-end "View organizational chart" website</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Code Front-end, back-end "View account information" website</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>Code "Add account" website</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>Code "Edit account" website</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>Test "Login" app</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>Test   "Login" website</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>Test  "Logout" app</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>Test  "Logout" website</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>Test  "Search personnel" app</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>Test  "View personnel" app</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>Test  "Upload organizational chart" website</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>Test  "View organizational chart" app</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>Test  "Add company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>Test  "Edit company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>Test  "Delete company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>Test  "View company policy" app</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>Test  "View company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>Test  "View personnel" website</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>Test  "View organizational chart" website</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>Test  "View account information" website</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>Test  "Add account" website</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>Test  "Edit account" website</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>Kết thúc planning, analysing &amp; training</c:v>
                 </c:pt>
               </c:strCache>
@@ -1504,10 +1503,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$4:$C$61</c:f>
+              <c:f>'Dữ liệu dự án'!$C$4:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>43822</c:v>
                 </c:pt>
@@ -1575,108 +1574,123 @@
                   <c:v>43823</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43823</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43825</c:v>
+                  <c:v>43833</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43825</c:v>
+                  <c:v>43837</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43824</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>43830</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>43833</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>43825</c:v>
+                <c:pt idx="30">
+                  <c:v>43837</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43822</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43839</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43837</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43829</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43824</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43824</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43826</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43829</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43832</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>43836</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>43825</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43831</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43836</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>43838</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="52">
+                  <c:v>43839</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43839</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43843</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>43879</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>43882</c:v>
+                <c:pt idx="56">
+                  <c:v>43881</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="57">
                   <c:v>43885</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="58">
                   <c:v>43888</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="59">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="60">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>43824</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43824</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43826</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43829</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43831</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43832</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43836</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43838</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43839</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43839</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43843</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43881</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43885</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>43895</c:v>
                 </c:pt>
               </c:numCache>
@@ -3172,9 +3186,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$A$4:$A$61</c:f>
+              <c:f>'Dữ liệu dự án'!$A$4:$A$66</c:f>
               <c:strCache>
-                <c:ptCount val="58"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>Design prototype, sequence, use case description "Login" app</c:v>
                 </c:pt>
@@ -3239,114 +3253,129 @@
                   <c:v>Design use case diagram module 1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Code "Login" app</c:v>
+                  <c:v>Code Front-end "Login" app</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Code  "Login" website</c:v>
+                  <c:v>Code Front-end "Logout" app</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Code "Logout" app</c:v>
+                  <c:v>Code Front-end "Search personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Code "Logout" website</c:v>
+                  <c:v>Code Front-end "View personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Code "Search personnel" app</c:v>
+                  <c:v>Code Front-end "View organizational chart" app</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Code "View personnel" app</c:v>
+                  <c:v>Code Front-end "View company policy" app</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Code "Upload organizational chart" website</c:v>
+                  <c:v>Code Back-end "Login" app</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Code "View organizational chart" app</c:v>
+                  <c:v>Code Back-end "Logout" app</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Code "Add company policy" website</c:v>
+                  <c:v>Code Back-end "Search personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Code "Edit company policy" website</c:v>
+                  <c:v>Code Back-end "View personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Code "Delete company policy" website</c:v>
+                  <c:v>Code Back-end "View organizational chart" app</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Code "View company policy" app</c:v>
+                  <c:v>Code Back-end "View company policy" app</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Code "View company policy" website</c:v>
+                  <c:v>Code Front-end, back-end "Login, logout" website</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>Code "View personnel" website</c:v>
+                  <c:v>Code Front-end, back-end "Upload organizational chart" website</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Code "View organizational chart" website</c:v>
+                  <c:v>Code Front-end, back-end  "Add company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Code "View account information" website</c:v>
+                  <c:v>Code Front-end, back-end  "Edit company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>Code Front-end, back-end  "Delete company policy" website</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Code Front-end, back-end  "View company policy" website</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Code Front-end, back-end "View personnel" website</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Code Front-end, back-end "View organizational chart" website</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Code Front-end, back-end "View account information" website</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>Code "Add account" website</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>Code "Edit account" website</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>Test "Login" app</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>Test   "Login" website</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>Test  "Logout" app</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>Test  "Logout" website</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>Test  "Search personnel" app</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>Test  "View personnel" app</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>Test  "Upload organizational chart" website</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>Test  "View organizational chart" app</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>Test  "Add company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>Test  "Edit company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>Test  "Delete company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>Test  "View company policy" app</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>Test  "View company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>Test  "View personnel" website</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>Test  "View organizational chart" website</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>Test  "View account information" website</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>Test  "Add account" website</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>Test  "Edit account" website</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>Kết thúc planning, analysing &amp; training</c:v>
                 </c:pt>
               </c:strCache>
@@ -3354,10 +3383,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$E$4:$E$61</c:f>
+              <c:f>'Dữ liệu dự án'!$E$4:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3422,58 +3451,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1</c:v>
@@ -3485,10 +3514,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1</c:v>
@@ -3515,21 +3544,36 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3820,7 +3864,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$A$78:$A$82</c:f>
+              <c:f>'Dữ liệu dự án'!$A$83:$A$87</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3843,7 +3887,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$B$78:$B$82</c:f>
+              <c:f>'Dữ liệu dự án'!$B$83:$B$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4073,7 +4117,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$A$66:$A$69</c:f>
+              <c:f>'Dữ liệu dự án'!$A$71:$A$74</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4093,7 +4137,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$B$66:$B$69</c:f>
+              <c:f>'Dữ liệu dự án'!$B$71:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4267,7 +4311,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$A$73:$A$74</c:f>
+              <c:f>'Dữ liệu dự án'!$A$78:$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4281,7 +4325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$B$73:$B$74</c:f>
+              <c:f>'Dữ liệu dự án'!$B$78:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5445,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401903B-2B10-43DB-8751-463621604DD3}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
@@ -5461,7 +5505,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
       <c r="A1" s="63" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -5530,10 +5574,10 @@
       <c r="J3" s="68"/>
       <c r="K3" s="43"/>
       <c r="L3" s="44" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="M3" s="69" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="N3" s="70"/>
       <c r="O3" s="45"/>
@@ -5562,10 +5606,10 @@
       <c r="J4" s="68"/>
       <c r="K4" s="43"/>
       <c r="L4" s="46" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M4" s="69" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="N4" s="70"/>
       <c r="O4" s="45"/>
@@ -5594,10 +5638,10 @@
       <c r="J5" s="68"/>
       <c r="K5" s="43"/>
       <c r="L5" s="44" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="M5" s="69" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="N5" s="70"/>
       <c r="O5" s="45"/>
@@ -5626,10 +5670,10 @@
       <c r="J6" s="68"/>
       <c r="K6" s="43"/>
       <c r="L6" s="46" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M6" s="69" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="N6" s="70"/>
       <c r="O6" s="45"/>
@@ -5658,7 +5702,7 @@
       <c r="J7" s="68"/>
       <c r="K7" s="43"/>
       <c r="L7" s="44" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="M7" s="71">
         <v>43508</v>
@@ -5774,7 +5818,7 @@
       <c r="J11" s="68"/>
       <c r="K11" s="43"/>
       <c r="L11" s="73" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="M11" s="74"/>
       <c r="N11" s="74"/>
@@ -5804,16 +5848,16 @@
       <c r="J12" s="68"/>
       <c r="K12" s="43"/>
       <c r="L12" s="48" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M12" s="48" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="N12" s="48" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="O12" s="48" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
@@ -5840,16 +5884,16 @@
       <c r="J13" s="68"/>
       <c r="K13" s="43"/>
       <c r="L13" s="49" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="M13" s="50">
         <v>43508</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="P13" s="40"/>
       <c r="Q13" s="40"/>
@@ -33518,10 +33562,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:S128"/>
+  <dimension ref="A2:S133"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33531,17 +33575,18 @@
     <col min="3" max="4" width="14.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="3"/>
+    <col min="9" max="9" width="34.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -33555,21 +33600,24 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="I3" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
@@ -33581,7 +33629,7 @@
         <v>43823</v>
       </c>
       <c r="E4" s="25">
-        <f t="shared" ref="E4:E51" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E56" si="0">D4-C4</f>
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -33591,12 +33639,15 @@
         <v>9</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I4" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>17</v>
@@ -33618,12 +33669,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>17</v>
@@ -33645,12 +33697,13 @@
         <v>10</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>17</v>
@@ -33672,12 +33725,13 @@
         <v>10</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>17</v>
@@ -33699,12 +33753,13 @@
         <v>8</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>17</v>
@@ -33726,12 +33781,13 @@
         <v>8</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>17</v>
@@ -33753,12 +33809,13 @@
         <v>10</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>17</v>
@@ -33780,12 +33837,13 @@
         <v>8</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>17</v>
@@ -33807,12 +33865,13 @@
         <v>9</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>17</v>
@@ -33834,12 +33893,13 @@
         <v>9</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>17</v>
@@ -33861,12 +33921,13 @@
         <v>9</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>17</v>
@@ -33888,12 +33949,13 @@
         <v>7</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>17</v>
@@ -33915,12 +33977,13 @@
         <v>7</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>17</v>
@@ -33942,12 +34005,13 @@
         <v>7</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>17</v>
@@ -33969,12 +34033,13 @@
         <v>7</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>17</v>
@@ -33996,12 +34061,13 @@
         <v>9</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>17</v>
@@ -34023,12 +34089,13 @@
         <v>18</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1">
       <c r="A21" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>17</v>
@@ -34050,12 +34117,13 @@
         <v>9</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>17</v>
@@ -34077,12 +34145,13 @@
         <v>18</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>17</v>
@@ -34104,12 +34173,13 @@
         <v>18</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>17</v>
@@ -34131,642 +34201,666 @@
         <v>9</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C25" s="10">
         <v>43823</v>
       </c>
       <c r="D25" s="10">
-        <v>43824</v>
+        <v>43826</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="E25" si="1">D25-C25</f>
+        <v>3</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="24">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>64</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C26" s="10">
-        <v>43823</v>
+        <v>43830</v>
       </c>
       <c r="D26" s="10">
-        <v>43824</v>
+        <v>43833</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="E26:E31" si="2">D26-C26</f>
+        <v>3</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="24">
+        <v>27</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A27" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43833</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43836</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="24">
+        <v>27</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="A28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43837</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43840</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="24">
+        <v>27</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
+      <c r="A29" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43879</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43883</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="24">
+        <v>36</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
+      <c r="A30" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="10">
+        <v>43885</v>
+      </c>
+      <c r="D30" s="10">
+        <v>43889</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="24">
+        <v>36</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A31" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="10">
+        <v>43824</v>
+      </c>
+      <c r="D31" s="10">
+        <v>43827</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
+        <v>27</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A32" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="10">
+        <v>43830</v>
+      </c>
+      <c r="D32" s="10">
+        <v>43833</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" ref="E32:E47" si="3">D32-C32</f>
+        <v>3</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="24">
+        <v>27</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A33" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="10">
+        <v>43833</v>
+      </c>
+      <c r="D33" s="10">
+        <v>43836</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="24">
+        <v>27</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1">
+      <c r="A34" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="10">
+        <v>43837</v>
+      </c>
+      <c r="D34" s="10">
+        <v>43840</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="24">
+        <v>27</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1">
+      <c r="A35" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="10">
+        <v>43879</v>
+      </c>
+      <c r="D35" s="10">
+        <v>43883</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="24">
+        <v>36</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1">
+      <c r="A36" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="10">
+        <v>43885</v>
+      </c>
+      <c r="D36" s="10">
+        <v>43889</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="24">
+        <v>36</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="10">
+        <v>43822</v>
+      </c>
+      <c r="D37" s="10">
+        <v>43827</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="24">
+        <v>45</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1">
+      <c r="A38" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="10">
+        <v>43831</v>
+      </c>
+      <c r="D38" s="10">
+        <v>43836</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="24">
+        <v>45</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1">
+      <c r="A39" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="10">
+        <v>43839</v>
+      </c>
+      <c r="D39" s="10">
+        <v>43844</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="24">
+        <v>45</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1">
+      <c r="A40" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="10">
+        <v>43881</v>
+      </c>
+      <c r="D40" s="10">
+        <v>43885</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="24">
+        <v>36</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1">
+      <c r="A41" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="10">
+        <v>43886</v>
+      </c>
+      <c r="D41" s="10">
+        <v>43890</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="24">
+        <v>36</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1">
+      <c r="A42" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="10">
+        <v>43837</v>
+      </c>
+      <c r="D42" s="10">
+        <v>43838</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="24">
         <v>9</v>
       </c>
-      <c r="H26" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A27" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="H42" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="10">
-        <v>43825</v>
-      </c>
-      <c r="D27" s="10">
-        <v>43826</v>
-      </c>
-      <c r="E27" s="25">
-        <f t="shared" si="0"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1">
+      <c r="A43" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="10">
+        <v>43879</v>
+      </c>
+      <c r="D43" s="10">
+        <v>43880</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <v>9</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A28" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="10">
-        <v>43825</v>
-      </c>
-      <c r="D28" s="10">
-        <v>43826</v>
-      </c>
-      <c r="E28" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="24">
-        <v>9</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A29" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="10">
-        <v>43830</v>
-      </c>
-      <c r="D29" s="10">
-        <v>43832</v>
-      </c>
-      <c r="E29" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="24">
-        <v>14</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
-      <c r="A30" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="10">
-        <v>43833</v>
-      </c>
-      <c r="D30" s="10">
-        <v>43834</v>
-      </c>
-      <c r="E30" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="24">
-        <v>7</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
-      <c r="A31" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="10">
-        <v>43825</v>
-      </c>
-      <c r="D31" s="10">
-        <v>43830</v>
-      </c>
-      <c r="E31" s="25">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="24">
-        <v>24</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
-      <c r="A32" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="10">
-        <v>43836</v>
-      </c>
-      <c r="D32" s="10">
-        <v>43837</v>
-      </c>
-      <c r="E32" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="24">
-        <v>8</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
-      <c r="A33" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="10">
-        <v>43825</v>
-      </c>
-      <c r="D33" s="10">
-        <v>43830</v>
-      </c>
-      <c r="E33" s="25">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="24">
-        <v>21</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
-      <c r="A34" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="10">
-        <v>43831</v>
-      </c>
-      <c r="D34" s="10">
-        <v>43833</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="24">
-        <v>18</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="A35" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="10">
-        <v>43836</v>
-      </c>
-      <c r="D35" s="10">
-        <v>43838</v>
-      </c>
-      <c r="E35" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="24">
-        <v>18</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1">
-      <c r="A36" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="10">
-        <v>43838</v>
-      </c>
-      <c r="D36" s="10">
-        <v>43840</v>
-      </c>
-      <c r="E36" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="24">
-        <v>14</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1">
-      <c r="A37" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="10">
-        <v>43879</v>
-      </c>
-      <c r="D37" s="10">
-        <v>43881</v>
-      </c>
-      <c r="E37" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="24">
-        <v>14</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1">
-      <c r="A38" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="10">
-        <v>43882</v>
-      </c>
-      <c r="D38" s="10">
-        <v>43883</v>
-      </c>
-      <c r="E38" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="24">
-        <v>8</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1">
-      <c r="A39" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="10">
-        <v>43885</v>
-      </c>
-      <c r="D39" s="10">
-        <v>43887</v>
-      </c>
-      <c r="E39" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="24">
-        <v>16</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="10">
-        <v>43888</v>
-      </c>
-      <c r="D40" s="10">
-        <v>43889</v>
-      </c>
-      <c r="E40" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="24">
-        <v>8</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1">
-      <c r="A41" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="10">
-        <v>43892</v>
-      </c>
-      <c r="D41" s="10">
-        <v>43896</v>
-      </c>
-      <c r="E41" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="24">
-        <v>18</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1">
-      <c r="A42" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="10">
-        <v>43892</v>
-      </c>
-      <c r="D42" s="10">
-        <v>43896</v>
-      </c>
-      <c r="E42" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="24">
-        <v>18</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1">
-      <c r="A43" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="10">
-        <v>43824</v>
-      </c>
-      <c r="D43" s="10">
-        <v>43825</v>
-      </c>
-      <c r="E43" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="F43" s="11" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G43" s="24">
         <v>9</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
-      <c r="A44" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1">
+      <c r="A44" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="10">
+        <v>43829</v>
+      </c>
+      <c r="D44" s="10">
+        <v>43830</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="10">
-        <v>43824</v>
-      </c>
-      <c r="D44" s="10">
-        <v>43825</v>
-      </c>
-      <c r="E44" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>0</v>
       </c>
       <c r="G44" s="24">
         <v>9</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1">
-      <c r="A45" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C45" s="10">
-        <v>43826</v>
+        <v>43892</v>
       </c>
       <c r="D45" s="10">
-        <v>43827</v>
+        <v>43893</v>
       </c>
       <c r="E45" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G45" s="24">
         <v>9</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1">
-      <c r="A46" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1">
+      <c r="A46" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C46" s="10">
-        <v>43829</v>
+        <v>43894</v>
       </c>
       <c r="D46" s="10">
-        <v>43830</v>
+        <v>43896</v>
       </c>
       <c r="E46" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G46" s="24">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1">
-      <c r="A47" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1">
+      <c r="A47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C47" s="10">
-        <v>43831</v>
+        <v>43897</v>
       </c>
       <c r="D47" s="10">
-        <v>43832</v>
+        <v>43899</v>
       </c>
       <c r="E47" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G47" s="24">
-        <v>7</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1">
       <c r="A48" s="30" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="10">
-        <v>43832</v>
+        <v>43824</v>
       </c>
       <c r="D48" s="10">
-        <v>43833</v>
+        <v>43825</v>
       </c>
       <c r="E48" s="25">
         <f t="shared" si="0"/>
@@ -34779,21 +34873,22 @@
         <v>9</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1">
       <c r="A49" s="30" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="10">
-        <v>43836</v>
+        <v>43824</v>
       </c>
       <c r="D49" s="10">
-        <v>43837</v>
+        <v>43825</v>
       </c>
       <c r="E49" s="25">
         <f t="shared" si="0"/>
@@ -34803,24 +34898,25 @@
         <v>0</v>
       </c>
       <c r="G49" s="24">
-        <v>7</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1">
       <c r="A50" s="30" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="10">
-        <v>43838</v>
+        <v>43826</v>
       </c>
       <c r="D50" s="10">
-        <v>43839</v>
+        <v>43827</v>
       </c>
       <c r="E50" s="25">
         <f t="shared" si="0"/>
@@ -34833,21 +34929,22 @@
         <v>9</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1">
       <c r="A51" s="30" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="10">
-        <v>43839</v>
+        <v>43829</v>
       </c>
       <c r="D51" s="10">
-        <v>43840</v>
+        <v>43830</v>
       </c>
       <c r="E51" s="25">
         <f t="shared" si="0"/>
@@ -34860,535 +34957,649 @@
         <v>9</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1">
       <c r="A52" s="30" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="10">
-        <v>43839</v>
+        <v>43831</v>
       </c>
       <c r="D52" s="10">
-        <v>43840</v>
+        <v>43832</v>
       </c>
       <c r="E52" s="25">
-        <f t="shared" ref="E52:E60" si="1">D52-C52</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G52" s="24">
-        <v>9</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1">
       <c r="A53" s="30" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="10">
-        <v>43843</v>
+        <v>43832</v>
       </c>
       <c r="D53" s="10">
-        <v>43844</v>
+        <v>43833</v>
       </c>
       <c r="E53" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G53" s="24">
-        <v>8</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1">
       <c r="A54" s="30" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="10">
-        <v>43879</v>
+        <v>43836</v>
       </c>
       <c r="D54" s="10">
-        <v>43880</v>
+        <v>43837</v>
       </c>
       <c r="E54" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G54" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="I54" s="24"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1">
       <c r="A55" s="30" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="10">
-        <v>43881</v>
+        <v>43838</v>
       </c>
       <c r="D55" s="10">
-        <v>43882</v>
+        <v>43839</v>
       </c>
       <c r="E55" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G55" s="24">
-        <v>8</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1">
       <c r="A56" s="30" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="10">
-        <v>43885</v>
+        <v>43839</v>
       </c>
       <c r="D56" s="10">
-        <v>43887</v>
+        <v>43840</v>
       </c>
       <c r="E56" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G56" s="24">
-        <v>14</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="24"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1">
       <c r="A57" s="30" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="10">
-        <v>43888</v>
+        <v>43839</v>
       </c>
       <c r="D57" s="10">
-        <v>43889</v>
+        <v>43840</v>
       </c>
       <c r="E57" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E57:E65" si="4">D57-C57</f>
         <v>1</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G57" s="24">
-        <v>7</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="24"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1">
       <c r="A58" s="30" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C58" s="10">
-        <v>43892</v>
+        <v>43843</v>
       </c>
       <c r="D58" s="10">
-        <v>43894</v>
+        <v>43844</v>
       </c>
       <c r="E58" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G58" s="24">
-        <v>18</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1">
       <c r="A59" s="30" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B59" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="10">
-        <v>43892</v>
+        <v>43879</v>
       </c>
       <c r="D59" s="10">
-        <v>43894</v>
+        <v>43880</v>
       </c>
       <c r="E59" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G59" s="24">
-        <v>18</v>
-      </c>
-      <c r="H59" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="24"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1">
       <c r="A60" s="30" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="10">
-        <v>43895</v>
+        <v>43881</v>
       </c>
       <c r="D60" s="10">
-        <v>43896</v>
+        <v>43882</v>
       </c>
       <c r="E60" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G60" s="24">
+        <v>8</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" s="24"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1">
+      <c r="A61" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="10">
+        <v>43885</v>
+      </c>
+      <c r="D61" s="10">
+        <v>43887</v>
+      </c>
+      <c r="E61" s="25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="24">
+        <v>14</v>
+      </c>
+      <c r="H61" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1">
+      <c r="A62" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="10">
+        <v>43888</v>
+      </c>
+      <c r="D62" s="10">
+        <v>43889</v>
+      </c>
+      <c r="E62" s="25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="24">
+        <v>7</v>
+      </c>
+      <c r="H62" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="24"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1">
+      <c r="A63" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="10">
+        <v>43892</v>
+      </c>
+      <c r="D63" s="10">
+        <v>43894</v>
+      </c>
+      <c r="E63" s="25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="24">
         <v>18</v>
       </c>
-      <c r="H60" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1">
-      <c r="A61" s="12" t="s">
+      <c r="H63" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="24"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1">
+      <c r="A64" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="10">
+        <v>43892</v>
+      </c>
+      <c r="D64" s="10">
+        <v>43894</v>
+      </c>
+      <c r="E64" s="25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="24">
+        <v>18</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" s="24"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1">
+      <c r="A65" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="10">
+        <v>43895</v>
+      </c>
+      <c r="D65" s="10">
+        <v>43896</v>
+      </c>
+      <c r="E65" s="25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="24">
+        <v>18</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" s="24"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1">
+      <c r="A66" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="26">
-        <f>SUM(G4:G60)</f>
-        <v>635</v>
-      </c>
-      <c r="H61" s="32"/>
-    </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1">
-      <c r="G62" s="4"/>
-      <c r="H62" s="33"/>
-    </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1">
-      <c r="G63" s="4"/>
-      <c r="H63" s="33"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1">
-      <c r="G64" s="4"/>
-      <c r="H64" s="33"/>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1">
-      <c r="A65" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="33"/>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1">
-      <c r="A66" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="33"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1">
-      <c r="A67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="6">
-        <v>0.4</v>
-      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="26">
+        <f>SUM(G4:G65)</f>
+        <v>1032</v>
+      </c>
+      <c r="H66" s="32"/>
+      <c r="I66" s="26">
+        <f>SUM(I4:I65)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1">
       <c r="G67" s="4"/>
       <c r="H67" s="33"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1">
-      <c r="A68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="6">
-        <v>0.4</v>
-      </c>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1">
       <c r="G68" s="4"/>
       <c r="H68" s="33"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="6">
-        <v>0</v>
-      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1">
       <c r="G69" s="4"/>
       <c r="H69" s="33"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1">
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1">
+      <c r="A70" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1"/>
       <c r="G70" s="4"/>
       <c r="H70" s="33"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0.6</v>
+      </c>
       <c r="G71" s="4"/>
       <c r="H71" s="33"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1">
-      <c r="A72" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="1"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0.4</v>
+      </c>
       <c r="G72" s="4"/>
       <c r="H72" s="33"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1">
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B73" s="6">
+        <v>0.4</v>
+      </c>
       <c r="G73" s="4"/>
       <c r="H73" s="33"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1">
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0</v>
+      </c>
       <c r="G74" s="4"/>
       <c r="H74" s="33"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1">
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1">
       <c r="G75" s="4"/>
       <c r="H75" s="33"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1">
       <c r="G76" s="4"/>
       <c r="H76" s="33"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1">
-      <c r="A77" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1">
+      <c r="A77" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1"/>
       <c r="G77" s="4"/>
       <c r="H77" s="33"/>
-    </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1">
-      <c r="A78" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="18">
-        <v>11</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="7"/>
       <c r="G78" s="4"/>
       <c r="H78" s="33"/>
-    </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1">
-      <c r="A79" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="18">
-        <v>21</v>
-      </c>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" ht="15" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="7"/>
       <c r="G79" s="4"/>
       <c r="H79" s="33"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1">
-      <c r="A80" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="18">
-        <v>18</v>
-      </c>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1">
       <c r="G80" s="4"/>
       <c r="H80" s="33"/>
-    </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1">
-      <c r="A81" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="18">
-        <v>11</v>
-      </c>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" ht="15" customHeight="1">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="33"/>
-    </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1">
-      <c r="A82" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82" s="18">
-        <v>17</v>
-      </c>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1">
+      <c r="A82" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="33"/>
-    </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1">
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" ht="15" customHeight="1">
+      <c r="A83" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="18">
+        <v>11</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="33"/>
-    </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1">
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1">
+      <c r="A84" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="18">
+        <v>21</v>
+      </c>
       <c r="G84" s="4"/>
       <c r="H84" s="33"/>
-    </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1">
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1">
+      <c r="A85" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="18">
+        <v>18</v>
+      </c>
       <c r="G85" s="4"/>
       <c r="H85" s="33"/>
-    </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1">
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1">
+      <c r="A86" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="18">
+        <v>11</v>
+      </c>
       <c r="G86" s="4"/>
       <c r="H86" s="33"/>
-    </row>
-    <row r="87" spans="1:19" ht="15" customHeight="1">
-      <c r="B87" s="8"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1">
+      <c r="A87" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="18">
+        <v>17</v>
+      </c>
+      <c r="D87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="33"/>
-    </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1"/>
-    <row r="89" spans="1:19" ht="15" customHeight="1"/>
-    <row r="90" spans="1:19" ht="15" customHeight="1"/>
-    <row r="91" spans="1:19" ht="15" customHeight="1"/>
-    <row r="92" spans="1:19" ht="15" customHeight="1"/>
-    <row r="93" spans="1:19" ht="16.5" customHeight="1">
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-    </row>
-    <row r="94" spans="1:19" ht="16.5" customHeight="1">
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:19" ht="16.5" customHeight="1">
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-    </row>
-    <row r="96" spans="1:19" ht="16.5" customHeight="1">
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-    </row>
-    <row r="97" spans="9:19" ht="16.5" customHeight="1">
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-    </row>
-    <row r="98" spans="9:19" ht="16.5" customHeight="1">
-      <c r="I98" s="4"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" ht="15" customHeight="1">
+      <c r="G88" s="4"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1">
+      <c r="G89" s="4"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" ht="15" customHeight="1">
+      <c r="G90" s="4"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1">
+      <c r="G91" s="4"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1">
+      <c r="B92" s="8"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" ht="15" customHeight="1"/>
+    <row r="94" spans="1:9" ht="15" customHeight="1"/>
+    <row r="95" spans="1:9" ht="15" customHeight="1"/>
+    <row r="96" spans="1:9" ht="15" customHeight="1"/>
+    <row r="97" spans="10:19" ht="15" customHeight="1"/>
+    <row r="98" spans="10:19" ht="16.5" customHeight="1">
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -35400,8 +35611,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="9:19" ht="16.5" customHeight="1">
-      <c r="I99" s="4"/>
+    <row r="99" spans="10:19" ht="16.5" customHeight="1">
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -35413,8 +35623,7 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="9:19" ht="15" customHeight="1">
-      <c r="I100" s="4"/>
+    <row r="100" spans="10:19" ht="16.5" customHeight="1">
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -35426,8 +35635,7 @@
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="9:19" ht="15" customHeight="1">
-      <c r="I101" s="4"/>
+    <row r="101" spans="10:19" ht="16.5" customHeight="1">
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -35439,8 +35647,7 @@
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="9:19" ht="15" customHeight="1">
-      <c r="I102" s="4"/>
+    <row r="102" spans="10:19" ht="16.5" customHeight="1">
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -35452,8 +35659,7 @@
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="9:19" ht="15" customHeight="1">
-      <c r="I103" s="4"/>
+    <row r="103" spans="10:19" ht="16.5" customHeight="1">
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -35465,8 +35671,7 @@
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="9:19" ht="15" customHeight="1">
-      <c r="I104" s="4"/>
+    <row r="104" spans="10:19" ht="16.5" customHeight="1">
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -35478,8 +35683,7 @@
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="9:19" ht="15" customHeight="1">
-      <c r="I105" s="4"/>
+    <row r="105" spans="10:19" ht="15" customHeight="1">
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -35491,8 +35695,7 @@
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="9:19" ht="15" customHeight="1">
-      <c r="I106" s="4"/>
+    <row r="106" spans="10:19" ht="15" customHeight="1">
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -35504,8 +35707,7 @@
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="9:19" ht="15" customHeight="1">
-      <c r="I107" s="4"/>
+    <row r="107" spans="10:19" ht="15" customHeight="1">
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -35517,8 +35719,7 @@
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="9:19" ht="15" customHeight="1">
-      <c r="I108" s="4"/>
+    <row r="108" spans="10:19" ht="15" customHeight="1">
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -35530,8 +35731,7 @@
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="9:19" ht="15" customHeight="1">
-      <c r="I109" s="4"/>
+    <row r="109" spans="10:19" ht="15" customHeight="1">
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -35543,8 +35743,7 @@
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="9:19" ht="15" customHeight="1">
-      <c r="I110" s="4"/>
+    <row r="110" spans="10:19" ht="15" customHeight="1">
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -35556,8 +35755,7 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="9:19" ht="15" customHeight="1">
-      <c r="I111" s="4"/>
+    <row r="111" spans="10:19" ht="15" customHeight="1">
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -35569,8 +35767,7 @@
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="9:19" ht="15" customHeight="1">
-      <c r="I112" s="4"/>
+    <row r="112" spans="10:19" ht="15" customHeight="1">
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -35582,8 +35779,7 @@
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="9:19" ht="15" customHeight="1">
-      <c r="I113" s="4"/>
+    <row r="113" spans="10:19" ht="15" customHeight="1">
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -35595,8 +35791,7 @@
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="9:19" ht="15" customHeight="1">
-      <c r="I114" s="4"/>
+    <row r="114" spans="10:19" ht="15" customHeight="1">
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -35608,8 +35803,7 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="9:19" ht="15" customHeight="1">
-      <c r="I115" s="4"/>
+    <row r="115" spans="10:19" ht="15" customHeight="1">
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -35621,8 +35815,7 @@
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="9:19" ht="15" customHeight="1">
-      <c r="I116" s="4"/>
+    <row r="116" spans="10:19" ht="15" customHeight="1">
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -35634,8 +35827,7 @@
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="9:19" ht="15" customHeight="1">
-      <c r="I117" s="4"/>
+    <row r="117" spans="10:19" ht="15" customHeight="1">
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -35647,8 +35839,7 @@
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="9:19" ht="15" customHeight="1">
-      <c r="I118" s="4"/>
+    <row r="118" spans="10:19" ht="15" customHeight="1">
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
@@ -35660,8 +35851,7 @@
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="9:19" ht="15" customHeight="1">
-      <c r="I119" s="4"/>
+    <row r="119" spans="10:19" ht="15" customHeight="1">
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
@@ -35673,8 +35863,7 @@
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="9:19" ht="15" customHeight="1">
-      <c r="I120" s="4"/>
+    <row r="120" spans="10:19" ht="15" customHeight="1">
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -35686,8 +35875,7 @@
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="9:19" ht="15" customHeight="1">
-      <c r="I121" s="4"/>
+    <row r="121" spans="10:19" ht="15" customHeight="1">
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
@@ -35699,8 +35887,7 @@
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="9:19" ht="15" customHeight="1">
-      <c r="I122" s="4"/>
+    <row r="122" spans="10:19" ht="15" customHeight="1">
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -35712,8 +35899,7 @@
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="9:19" ht="15" customHeight="1">
-      <c r="I123" s="4"/>
+    <row r="123" spans="10:19" ht="15" customHeight="1">
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -35725,8 +35911,7 @@
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="9:19">
-      <c r="I124" s="4"/>
+    <row r="124" spans="10:19" ht="15" customHeight="1">
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -35738,8 +35923,7 @@
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="9:19">
-      <c r="I125" s="4"/>
+    <row r="125" spans="10:19" ht="15" customHeight="1">
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -35751,8 +35935,7 @@
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="9:19">
-      <c r="I126" s="4"/>
+    <row r="126" spans="10:19" ht="15" customHeight="1">
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -35764,8 +35947,7 @@
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="9:19">
-      <c r="I127" s="4"/>
+    <row r="127" spans="10:19" ht="15" customHeight="1">
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -35777,8 +35959,7 @@
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="9:19">
-      <c r="I128" s="4"/>
+    <row r="128" spans="10:19" ht="15" customHeight="1">
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -35790,13 +35971,73 @@
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
     </row>
+    <row r="129" spans="10:19">
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+    </row>
+    <row r="130" spans="10:19">
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+    </row>
+    <row r="131" spans="10:19">
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+    </row>
+    <row r="132" spans="10:19">
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+    </row>
+    <row r="133" spans="10:19">
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B60 B4:B24" xr:uid="{A831E3A7-8EBE-4F66-90A5-3CD1673F4CA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B65 B4:B24" xr:uid="{A831E3A7-8EBE-4F66-90A5-3CD1673F4CA4}">
       <formula1>"Đạt Huỳnh, Anh Minh, Quang Vương, Quốc Nhân, Như Phương"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H60" xr:uid="{D6902BE1-7239-4E55-819C-7F837102A60E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H65" xr:uid="{D6902BE1-7239-4E55-819C-7F837102A60E}">
       <formula1>"Cao, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019BBD9F-4180-4A3C-9287-8C096C9E271B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD57184-C39E-4DE0-B7C3-681355DE1ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,12 +171,6 @@
   </si>
   <si>
     <t>Design use case diagram module 1</t>
-  </si>
-  <si>
-    <t>Code "Add account" website</t>
-  </si>
-  <si>
-    <t>Code "Edit account" website</t>
   </si>
   <si>
     <t>Test "Login" app</t>
@@ -407,6 +401,12 @@
   </si>
   <si>
     <t>Code Front-end, back-end "View account information" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "Add account" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "Edit account" website</t>
   </si>
 </sst>
 </file>
@@ -1128,6 +1128,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1166,9 +1169,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1436,10 +1436,10 @@
                   <c:v>Code Front-end, back-end "View account information" website</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>Code "Add account" website</c:v>
+                  <c:v>Code Front-end, back-end "Add account" website</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>Code "Edit account" website</c:v>
+                  <c:v>Code Front-end, back-end "Edit account" website</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>Test "Login" app</c:v>
@@ -3316,10 +3316,10 @@
                   <c:v>Code Front-end, back-end "View account information" website</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>Code "Add account" website</c:v>
+                  <c:v>Code Front-end, back-end "Add account" website</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>Code "Edit account" website</c:v>
+                  <c:v>Code Front-end, back-end "Edit account" website</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>Test "Login" app</c:v>
@@ -5504,18 +5504,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="A1" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -5534,16 +5534,16 @@
       <c r="Z1" s="40"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="40"/>
       <c r="L2" s="42"/>
       <c r="M2" s="42"/>
@@ -5562,24 +5562,24 @@
       <c r="Z2" s="40"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="43"/>
       <c r="L3" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="70"/>
+        <v>66</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="71"/>
       <c r="O3" s="45"/>
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
@@ -5594,24 +5594,24 @@
       <c r="Z3" s="40"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="43"/>
       <c r="L4" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="70"/>
+        <v>68</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="71"/>
       <c r="O4" s="45"/>
       <c r="P4" s="40"/>
       <c r="Q4" s="40"/>
@@ -5626,24 +5626,24 @@
       <c r="Z4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="43"/>
       <c r="L5" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5" s="70"/>
+        <v>70</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="71"/>
       <c r="O5" s="45"/>
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
@@ -5658,24 +5658,24 @@
       <c r="Z5" s="40"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="43"/>
       <c r="L6" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="70"/>
+        <v>71</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="71"/>
       <c r="O6" s="45"/>
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
@@ -5690,24 +5690,24 @@
       <c r="Z6" s="40"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="43"/>
       <c r="L7" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="71">
+        <v>73</v>
+      </c>
+      <c r="M7" s="72">
         <v>43508</v>
       </c>
-      <c r="N7" s="72"/>
+      <c r="N7" s="73"/>
       <c r="O7" s="45"/>
       <c r="P7" s="40"/>
       <c r="Q7" s="40"/>
@@ -5722,16 +5722,16 @@
       <c r="Z7" s="40"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="40"/>
       <c r="L8" s="45"/>
       <c r="M8" s="45"/>
@@ -5750,16 +5750,16 @@
       <c r="Z8" s="40"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="40"/>
       <c r="L9" s="45"/>
       <c r="M9" s="45"/>
@@ -5778,16 +5778,16 @@
       <c r="Z9" s="40"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="40"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
@@ -5806,23 +5806,23 @@
       <c r="Z10" s="40"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="43"/>
-      <c r="L11" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="75"/>
+      <c r="L11" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
@@ -5836,28 +5836,28 @@
       <c r="Z11" s="40"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="43"/>
       <c r="L12" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="O12" s="48" t="s">
         <v>78</v>
-      </c>
-      <c r="N12" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" s="48" t="s">
-        <v>80</v>
       </c>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
@@ -5872,28 +5872,28 @@
       <c r="Z12" s="40"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="43"/>
       <c r="L13" s="49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M13" s="50">
         <v>43508</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P13" s="40"/>
       <c r="Q13" s="40"/>
@@ -5908,16 +5908,16 @@
       <c r="Z13" s="40"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="43"/>
       <c r="L14" s="53"/>
       <c r="M14" s="54"/>
@@ -5936,16 +5936,16 @@
       <c r="Z14" s="40"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="43"/>
       <c r="L15" s="53"/>
       <c r="M15" s="54"/>
@@ -5964,16 +5964,16 @@
       <c r="Z15" s="40"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="43"/>
       <c r="L16" s="55"/>
       <c r="M16" s="56"/>
@@ -5992,16 +5992,16 @@
       <c r="Z16" s="40"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="43"/>
       <c r="L17" s="55"/>
       <c r="M17" s="56"/>
@@ -6020,16 +6020,16 @@
       <c r="Z17" s="40"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="43"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
@@ -6048,16 +6048,16 @@
       <c r="Z18" s="40"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="43"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
@@ -6076,16 +6076,16 @@
       <c r="Z19" s="40"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
       <c r="K20" s="43"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
@@ -33564,8 +33564,8 @@
   </sheetPr>
   <dimension ref="A2:S133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33606,13 +33606,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
@@ -33639,7 +33639,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I4" s="24">
         <v>14</v>
@@ -33669,7 +33669,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" s="24"/>
     </row>
@@ -33697,7 +33697,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I6" s="24"/>
     </row>
@@ -33725,7 +33725,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I7" s="24"/>
     </row>
@@ -33753,7 +33753,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I8" s="24"/>
     </row>
@@ -33781,7 +33781,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9" s="24"/>
     </row>
@@ -33809,7 +33809,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I10" s="24"/>
     </row>
@@ -33837,7 +33837,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11" s="24"/>
     </row>
@@ -33865,7 +33865,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12" s="24"/>
     </row>
@@ -33893,7 +33893,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I13" s="24"/>
     </row>
@@ -33921,7 +33921,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I14" s="24"/>
     </row>
@@ -33949,7 +33949,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I15" s="24"/>
     </row>
@@ -33977,7 +33977,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I16" s="24"/>
     </row>
@@ -34005,7 +34005,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I17" s="24"/>
     </row>
@@ -34033,7 +34033,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="24"/>
     </row>
@@ -34061,7 +34061,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I19" s="24"/>
     </row>
@@ -34089,7 +34089,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" s="24"/>
     </row>
@@ -34117,7 +34117,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="24"/>
     </row>
@@ -34145,7 +34145,7 @@
         <v>18</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I22" s="24"/>
     </row>
@@ -34173,7 +34173,7 @@
         <v>18</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I23" s="24"/>
     </row>
@@ -34201,13 +34201,13 @@
         <v>9</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>16</v>
@@ -34229,13 +34229,13 @@
         <v>27</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>16</v>
@@ -34257,13 +34257,13 @@
         <v>27</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>16</v>
@@ -34279,19 +34279,19 @@
         <v>3</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G27" s="24">
         <v>27</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>16</v>
@@ -34307,19 +34307,19 @@
         <v>3</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="24">
         <v>27</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>16</v>
@@ -34335,19 +34335,19 @@
         <v>4</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G29" s="24">
         <v>36</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>16</v>
@@ -34363,21 +34363,21 @@
         <v>4</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G30" s="24">
         <v>36</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="10">
@@ -34397,15 +34397,15 @@
         <v>27</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="10">
@@ -34425,15 +34425,15 @@
         <v>27</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="10">
@@ -34447,21 +34447,21 @@
         <v>3</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G33" s="24">
         <v>27</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="10">
@@ -34475,21 +34475,21 @@
         <v>3</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G34" s="24">
         <v>27</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="10">
@@ -34503,21 +34503,21 @@
         <v>4</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G35" s="24">
         <v>36</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="10">
@@ -34531,19 +34531,19 @@
         <v>4</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G36" s="24">
         <v>36</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>19</v>
@@ -34565,16 +34565,16 @@
         <v>45</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="10">
         <v>43831</v>
@@ -34587,19 +34587,19 @@
         <v>5</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G38" s="24">
         <v>45</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>19</v>
@@ -34615,19 +34615,19 @@
         <v>5</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G39" s="24">
         <v>45</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>19</v>
@@ -34643,19 +34643,19 @@
         <v>4</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G40" s="24">
         <v>36</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>19</v>
@@ -34671,19 +34671,19 @@
         <v>4</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G41" s="24">
         <v>36</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
       <c r="A42" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>19</v>
@@ -34699,19 +34699,19 @@
         <v>1</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G42" s="24">
         <v>9</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>19</v>
@@ -34727,19 +34727,19 @@
         <v>1</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G43" s="24">
         <v>9</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
       <c r="A44" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>19</v>
@@ -34755,19 +34755,19 @@
         <v>1</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G44" s="24">
         <v>9</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B45" s="23" t="s">
         <v>19</v>
@@ -34783,19 +34783,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G45" s="24">
         <v>9</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1">
       <c r="A46" s="29" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>19</v>
@@ -34811,19 +34811,19 @@
         <v>2</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G46" s="24">
         <v>18</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1">
       <c r="A47" s="29" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>19</v>
@@ -34839,19 +34839,19 @@
         <v>2</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G47" s="24">
         <v>18</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1">
       <c r="A48" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>20</v>
@@ -34873,13 +34873,13 @@
         <v>9</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1">
       <c r="A49" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>20</v>
@@ -34901,13 +34901,13 @@
         <v>9</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I49" s="24"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1">
       <c r="A50" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>20</v>
@@ -34929,13 +34929,13 @@
         <v>9</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I50" s="24"/>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1">
       <c r="A51" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>20</v>
@@ -34957,13 +34957,13 @@
         <v>9</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I51" s="24"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1">
       <c r="A52" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>20</v>
@@ -34985,13 +34985,13 @@
         <v>7</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I52" s="24"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1">
       <c r="A53" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>20</v>
@@ -35013,13 +35013,13 @@
         <v>9</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I53" s="24"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1">
       <c r="A54" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>20</v>
@@ -35041,13 +35041,13 @@
         <v>7</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I54" s="24"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1">
       <c r="A55" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>20</v>
@@ -35069,13 +35069,13 @@
         <v>9</v>
       </c>
       <c r="H55" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I55" s="24"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1">
       <c r="A56" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>20</v>
@@ -35097,13 +35097,13 @@
         <v>9</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I56" s="24"/>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1">
       <c r="A57" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>20</v>
@@ -35125,13 +35125,13 @@
         <v>9</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I57" s="24"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1">
       <c r="A58" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>20</v>
@@ -35153,13 +35153,13 @@
         <v>8</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I58" s="24"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1">
       <c r="A59" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="27" t="s">
         <v>20</v>
@@ -35181,13 +35181,13 @@
         <v>8</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I59" s="24"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1">
       <c r="A60" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>20</v>
@@ -35209,13 +35209,13 @@
         <v>8</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I60" s="24"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1">
       <c r="A61" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="27" t="s">
         <v>20</v>
@@ -35237,13 +35237,13 @@
         <v>14</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I61" s="24"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1">
       <c r="A62" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="27" t="s">
         <v>20</v>
@@ -35265,13 +35265,13 @@
         <v>7</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I62" s="24"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1">
       <c r="A63" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="27" t="s">
         <v>20</v>
@@ -35293,13 +35293,13 @@
         <v>18</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I63" s="24"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1">
       <c r="A64" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>20</v>
@@ -35321,13 +35321,13 @@
         <v>18</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1">
       <c r="A65" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="27" t="s">
         <v>20</v>
@@ -35349,7 +35349,7 @@
         <v>18</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I65" s="24"/>
     </row>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD57184-C39E-4DE0-B7C3-681355DE1ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F8FEDC-98D0-4B34-AAE8-80BA1959F002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3892,13 +3892,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
@@ -33564,8 +33564,8 @@
   </sheetPr>
   <dimension ref="A2:S133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -35513,7 +35513,7 @@
         <v>16</v>
       </c>
       <c r="B83" s="18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -35539,7 +35539,7 @@
         <v>18</v>
       </c>
       <c r="B85" s="18">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="33"/>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2B5B2-7464-4315-AD6C-6C8ED126700B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F8FEDC-98D0-4B34-AAE8-80BA1959F002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Kết thúc planning, analysing &amp; training</t>
-  </si>
-  <si>
-    <t>Số giờ hoàn thành công việc (Giờ)</t>
   </si>
   <si>
     <t>Số ngày (ngày)</t>
@@ -176,88 +173,6 @@
     <t>Design use case diagram module 1</t>
   </si>
   <si>
-    <t>Code "Login" app</t>
-  </si>
-  <si>
-    <t>Code  "Login" website</t>
-  </si>
-  <si>
-    <t>Code "Logout" app</t>
-  </si>
-  <si>
-    <t>Code "Logout" website</t>
-  </si>
-  <si>
-    <t>Code "Search personnel" app</t>
-  </si>
-  <si>
-    <t>Code "View personnel" app</t>
-  </si>
-  <si>
-    <t>Code "Upload organizational chart" website</t>
-  </si>
-  <si>
-    <t>Code "View organizational chart" app</t>
-  </si>
-  <si>
-    <t>Code "Add company policy" website</t>
-  </si>
-  <si>
-    <t>Code "Edit company policy" website</t>
-  </si>
-  <si>
-    <t>Code "Delete company policy" website</t>
-  </si>
-  <si>
-    <t>Code "View company policy" app</t>
-  </si>
-  <si>
-    <t>Code "View company policy" website</t>
-  </si>
-  <si>
-    <t>Code "View personnel" website</t>
-  </si>
-  <si>
-    <t>Code "View organizational chart" website</t>
-  </si>
-  <si>
-    <t>Code "View account information" website</t>
-  </si>
-  <si>
-    <t>Code "Add account" website</t>
-  </si>
-  <si>
-    <t>Code "Edit account" website</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Anh Minh, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Quang Vương</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Đạt Huỳnh, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Quang Vương</t>
-    </r>
-  </si>
-  <si>
     <t>Test "Login" app</t>
   </si>
   <si>
@@ -316,29 +231,6 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Anh Minh, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Quang Vương, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Đạt Huỳnh  </t>
-    </r>
   </si>
   <si>
     <r>
@@ -426,6 +318,95 @@
   </si>
   <si>
     <t>Create schedule module 1</t>
+  </si>
+  <si>
+    <t>Số giờ hoàn thành công việc cá nhân (Giờ)</t>
+  </si>
+  <si>
+    <t>Số giờ hoàn thành công việc kế hoạch (Giờ)</t>
+  </si>
+  <si>
+    <t>Code Front-end "Login" app</t>
+  </si>
+  <si>
+    <t>Code Front-end "Logout" app</t>
+  </si>
+  <si>
+    <t>Code Front-end "Search personnel" app</t>
+  </si>
+  <si>
+    <t>Code Front-end "View organizational chart" app</t>
+  </si>
+  <si>
+    <t>Code Front-end "View personnel" app</t>
+  </si>
+  <si>
+    <t>Code Front-end "View company policy" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "Login" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "Logout" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "Search personnel" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "View personnel" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "View organizational chart" app</t>
+  </si>
+  <si>
+    <t>Code Back-end "View company policy" app</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "Upload organizational chart" website</t>
+  </si>
+  <si>
+    <r>
+      <t>Anh Minh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "Login, logout" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "Add company policy" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "Edit company policy" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "Delete company policy" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "View company policy" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "View personnel" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "View organizational chart" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "View account information" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "Add account" website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "Edit account" website</t>
   </si>
 </sst>
 </file>
@@ -549,12 +530,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF7030A0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -652,6 +627,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF92D050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -961,7 +942,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1029,7 +1010,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,7 +1022,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,11 +1046,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1077,113 +1061,113 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1322,9 +1306,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$A$4:$A$61</c:f>
+              <c:f>'Dữ liệu dự án'!$A$4:$A$66</c:f>
               <c:strCache>
-                <c:ptCount val="58"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>Design prototype, sequence, use case description "Login" app</c:v>
                 </c:pt>
@@ -1389,114 +1373,129 @@
                   <c:v>Design use case diagram module 1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Code "Login" app</c:v>
+                  <c:v>Code Front-end "Login" app</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Code  "Login" website</c:v>
+                  <c:v>Code Front-end "Logout" app</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Code "Logout" app</c:v>
+                  <c:v>Code Front-end "Search personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Code "Logout" website</c:v>
+                  <c:v>Code Front-end "View personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Code "Search personnel" app</c:v>
+                  <c:v>Code Front-end "View organizational chart" app</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Code "View personnel" app</c:v>
+                  <c:v>Code Front-end "View company policy" app</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Code "Upload organizational chart" website</c:v>
+                  <c:v>Code Back-end "Login" app</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Code "View organizational chart" app</c:v>
+                  <c:v>Code Back-end "Logout" app</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Code "Add company policy" website</c:v>
+                  <c:v>Code Back-end "Search personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Code "Edit company policy" website</c:v>
+                  <c:v>Code Back-end "View personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Code "Delete company policy" website</c:v>
+                  <c:v>Code Back-end "View organizational chart" app</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Code "View company policy" app</c:v>
+                  <c:v>Code Back-end "View company policy" app</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Code "View company policy" website</c:v>
+                  <c:v>Code Front-end, back-end "Login, logout" website</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>Code "View personnel" website</c:v>
+                  <c:v>Code Front-end, back-end "Upload organizational chart" website</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Code "View organizational chart" website</c:v>
+                  <c:v>Code Front-end, back-end  "Add company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Code "View account information" website</c:v>
+                  <c:v>Code Front-end, back-end  "Edit company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>Code "Add account" website</c:v>
+                  <c:v>Code Front-end, back-end  "Delete company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Code "Edit account" website</c:v>
+                  <c:v>Code Front-end, back-end  "View company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>Code Front-end, back-end "View personnel" website</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Code Front-end, back-end "View organizational chart" website</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Code Front-end, back-end "View account information" website</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Code Front-end, back-end "Add account" website</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Code Front-end, back-end "Edit account" website</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>Test "Login" app</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>Test   "Login" website</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>Test  "Logout" app</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>Test  "Logout" website</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>Test  "Search personnel" app</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>Test  "View personnel" app</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>Test  "Upload organizational chart" website</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>Test  "View organizational chart" app</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>Test  "Add company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>Test  "Edit company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>Test  "Delete company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>Test  "View company policy" app</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>Test  "View company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>Test  "View personnel" website</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>Test  "View organizational chart" website</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>Test  "View account information" website</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>Test  "Add account" website</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>Test  "Edit account" website</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>Kết thúc planning, analysing &amp; training</c:v>
                 </c:pt>
               </c:strCache>
@@ -1504,10 +1503,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$4:$C$61</c:f>
+              <c:f>'Dữ liệu dự án'!$C$4:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>43822</c:v>
                 </c:pt>
@@ -1575,108 +1574,123 @@
                   <c:v>43823</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43823</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43825</c:v>
+                  <c:v>43833</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43825</c:v>
+                  <c:v>43837</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43824</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>43830</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>43833</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>43825</c:v>
+                <c:pt idx="30">
+                  <c:v>43837</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43822</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43839</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43837</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43829</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43824</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43824</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43826</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43829</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43832</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>43836</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>43825</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43831</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43836</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>43838</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="52">
+                  <c:v>43839</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43839</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43843</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>43879</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>43882</c:v>
+                <c:pt idx="56">
+                  <c:v>43881</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="57">
                   <c:v>43885</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="58">
                   <c:v>43888</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="59">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="60">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>43824</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43824</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43826</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43829</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43831</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43832</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43836</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43838</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43839</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43839</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43843</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43881</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43885</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>43895</c:v>
                 </c:pt>
               </c:numCache>
@@ -3172,9 +3186,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$A$4:$A$61</c:f>
+              <c:f>'Dữ liệu dự án'!$A$4:$A$66</c:f>
               <c:strCache>
-                <c:ptCount val="58"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>Design prototype, sequence, use case description "Login" app</c:v>
                 </c:pt>
@@ -3239,114 +3253,129 @@
                   <c:v>Design use case diagram module 1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Code "Login" app</c:v>
+                  <c:v>Code Front-end "Login" app</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Code  "Login" website</c:v>
+                  <c:v>Code Front-end "Logout" app</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Code "Logout" app</c:v>
+                  <c:v>Code Front-end "Search personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Code "Logout" website</c:v>
+                  <c:v>Code Front-end "View personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Code "Search personnel" app</c:v>
+                  <c:v>Code Front-end "View organizational chart" app</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Code "View personnel" app</c:v>
+                  <c:v>Code Front-end "View company policy" app</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Code "Upload organizational chart" website</c:v>
+                  <c:v>Code Back-end "Login" app</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Code "View organizational chart" app</c:v>
+                  <c:v>Code Back-end "Logout" app</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Code "Add company policy" website</c:v>
+                  <c:v>Code Back-end "Search personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Code "Edit company policy" website</c:v>
+                  <c:v>Code Back-end "View personnel" app</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Code "Delete company policy" website</c:v>
+                  <c:v>Code Back-end "View organizational chart" app</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Code "View company policy" app</c:v>
+                  <c:v>Code Back-end "View company policy" app</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Code "View company policy" website</c:v>
+                  <c:v>Code Front-end, back-end "Login, logout" website</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>Code "View personnel" website</c:v>
+                  <c:v>Code Front-end, back-end "Upload organizational chart" website</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Code "View organizational chart" website</c:v>
+                  <c:v>Code Front-end, back-end  "Add company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Code "View account information" website</c:v>
+                  <c:v>Code Front-end, back-end  "Edit company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>Code "Add account" website</c:v>
+                  <c:v>Code Front-end, back-end  "Delete company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Code "Edit account" website</c:v>
+                  <c:v>Code Front-end, back-end  "View company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>Code Front-end, back-end "View personnel" website</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Code Front-end, back-end "View organizational chart" website</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Code Front-end, back-end "View account information" website</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Code Front-end, back-end "Add account" website</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Code Front-end, back-end "Edit account" website</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>Test "Login" app</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>Test   "Login" website</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>Test  "Logout" app</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>Test  "Logout" website</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>Test  "Search personnel" app</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>Test  "View personnel" app</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>Test  "Upload organizational chart" website</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>Test  "View organizational chart" app</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>Test  "Add company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>Test  "Edit company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>Test  "Delete company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>Test  "View company policy" app</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>Test  "View company policy" website</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>Test  "View personnel" website</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>Test  "View organizational chart" website</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>Test  "View account information" website</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>Test  "Add account" website</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>Test  "Edit account" website</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>Kết thúc planning, analysing &amp; training</c:v>
                 </c:pt>
               </c:strCache>
@@ -3354,10 +3383,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$E$4:$E$61</c:f>
+              <c:f>'Dữ liệu dự án'!$E$4:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3422,58 +3451,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1</c:v>
@@ -3485,10 +3514,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1</c:v>
@@ -3515,21 +3544,36 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3820,7 +3864,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$A$78:$A$82</c:f>
+              <c:f>'Dữ liệu dự án'!$A$83:$A$87</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3843,18 +3887,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$B$78:$B$82</c:f>
+              <c:f>'Dữ liệu dự án'!$B$83:$B$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
@@ -4073,7 +4117,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$A$66:$A$69</c:f>
+              <c:f>'Dữ liệu dự án'!$A$71:$A$74</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4093,7 +4137,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$B$66:$B$69</c:f>
+              <c:f>'Dữ liệu dự án'!$B$71:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4267,7 +4311,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$A$73:$A$74</c:f>
+              <c:f>'Dữ liệu dự án'!$A$78:$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4281,7 +4325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$B$73:$B$74</c:f>
+              <c:f>'Dữ liệu dự án'!$B$78:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5445,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401903B-2B10-43DB-8751-463621604DD3}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
@@ -5460,18 +5504,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="A1" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -5490,16 +5534,16 @@
       <c r="Z1" s="40"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="40"/>
       <c r="L2" s="42"/>
       <c r="M2" s="42"/>
@@ -5518,24 +5562,24 @@
       <c r="Z2" s="40"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="43"/>
       <c r="L3" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="70"/>
+        <v>66</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="71"/>
       <c r="O3" s="45"/>
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
@@ -5550,24 +5594,24 @@
       <c r="Z3" s="40"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="43"/>
       <c r="L4" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="70"/>
+        <v>68</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="71"/>
       <c r="O4" s="45"/>
       <c r="P4" s="40"/>
       <c r="Q4" s="40"/>
@@ -5582,24 +5626,24 @@
       <c r="Z4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="43"/>
       <c r="L5" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" s="70"/>
+        <v>70</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="71"/>
       <c r="O5" s="45"/>
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
@@ -5614,24 +5658,24 @@
       <c r="Z5" s="40"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="43"/>
       <c r="L6" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="70"/>
+        <v>71</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="71"/>
       <c r="O6" s="45"/>
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
@@ -5646,24 +5690,24 @@
       <c r="Z6" s="40"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="43"/>
       <c r="L7" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="71">
+        <v>73</v>
+      </c>
+      <c r="M7" s="72">
         <v>43508</v>
       </c>
-      <c r="N7" s="72"/>
+      <c r="N7" s="73"/>
       <c r="O7" s="45"/>
       <c r="P7" s="40"/>
       <c r="Q7" s="40"/>
@@ -5678,16 +5722,16 @@
       <c r="Z7" s="40"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="40"/>
       <c r="L8" s="45"/>
       <c r="M8" s="45"/>
@@ -5706,16 +5750,16 @@
       <c r="Z8" s="40"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="40"/>
       <c r="L9" s="45"/>
       <c r="M9" s="45"/>
@@ -5734,16 +5778,16 @@
       <c r="Z9" s="40"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="40"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
@@ -5762,23 +5806,23 @@
       <c r="Z10" s="40"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="43"/>
-      <c r="L11" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="75"/>
+      <c r="L11" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
@@ -5792,28 +5836,28 @@
       <c r="Z11" s="40"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="43"/>
       <c r="L12" s="48" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="M12" s="48" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="N12" s="48" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="O12" s="48" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
@@ -5828,28 +5872,28 @@
       <c r="Z12" s="40"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="43"/>
       <c r="L13" s="49" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="M13" s="50">
         <v>43508</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="P13" s="40"/>
       <c r="Q13" s="40"/>
@@ -5864,16 +5908,16 @@
       <c r="Z13" s="40"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="43"/>
       <c r="L14" s="53"/>
       <c r="M14" s="54"/>
@@ -5892,16 +5936,16 @@
       <c r="Z14" s="40"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="43"/>
       <c r="L15" s="53"/>
       <c r="M15" s="54"/>
@@ -5920,16 +5964,16 @@
       <c r="Z15" s="40"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="43"/>
       <c r="L16" s="55"/>
       <c r="M16" s="56"/>
@@ -5948,16 +5992,16 @@
       <c r="Z16" s="40"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="43"/>
       <c r="L17" s="55"/>
       <c r="M17" s="56"/>
@@ -5976,16 +6020,16 @@
       <c r="Z17" s="40"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="43"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
@@ -6004,16 +6048,16 @@
       <c r="Z18" s="40"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="43"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
@@ -6032,16 +6076,16 @@
       <c r="Z19" s="40"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
       <c r="K20" s="43"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
@@ -33518,10 +33562,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:S128"/>
+  <dimension ref="A2:S133"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33531,17 +33575,18 @@
     <col min="3" max="4" width="14.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="3"/>
+    <col min="9" max="9" width="34.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -33555,21 +33600,24 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="I3" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
@@ -33581,7 +33629,7 @@
         <v>43823</v>
       </c>
       <c r="E4" s="25">
-        <f t="shared" ref="E4:E51" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E56" si="0">D4-C4</f>
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -33591,12 +33639,15 @@
         <v>9</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I4" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>17</v>
@@ -33618,12 +33669,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>17</v>
@@ -33645,12 +33697,13 @@
         <v>10</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>17</v>
@@ -33672,12 +33725,13 @@
         <v>10</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>17</v>
@@ -33699,12 +33753,13 @@
         <v>8</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>17</v>
@@ -33726,12 +33781,13 @@
         <v>8</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>17</v>
@@ -33753,12 +33809,13 @@
         <v>10</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>17</v>
@@ -33780,12 +33837,13 @@
         <v>8</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>17</v>
@@ -33807,12 +33865,13 @@
         <v>9</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>17</v>
@@ -33834,12 +33893,13 @@
         <v>9</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>17</v>
@@ -33861,12 +33921,13 @@
         <v>9</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>17</v>
@@ -33888,12 +33949,13 @@
         <v>7</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>17</v>
@@ -33915,12 +33977,13 @@
         <v>7</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>17</v>
@@ -33942,12 +34005,13 @@
         <v>7</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>17</v>
@@ -33969,12 +34033,13 @@
         <v>7</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>17</v>
@@ -33996,12 +34061,13 @@
         <v>9</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>17</v>
@@ -34023,12 +34089,13 @@
         <v>18</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1">
       <c r="A21" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>17</v>
@@ -34050,12 +34117,13 @@
         <v>9</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>17</v>
@@ -34077,12 +34145,13 @@
         <v>18</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>17</v>
@@ -34104,12 +34173,13 @@
         <v>18</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>17</v>
@@ -34131,642 +34201,666 @@
         <v>9</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C25" s="10">
         <v>43823</v>
       </c>
       <c r="D25" s="10">
-        <v>43824</v>
+        <v>43826</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="E25" si="1">D25-C25</f>
+        <v>3</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="24">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>64</v>
+        <v>86</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C26" s="10">
-        <v>43823</v>
+        <v>43830</v>
       </c>
       <c r="D26" s="10">
-        <v>43824</v>
+        <v>43833</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="E26:E31" si="2">D26-C26</f>
+        <v>3</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="24">
+        <v>27</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A27" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43833</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43836</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="24">
+        <v>27</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="A28" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43837</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43840</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="24">
+        <v>27</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
+      <c r="A29" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43879</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43883</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="24">
+        <v>36</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
+      <c r="A30" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="10">
+        <v>43885</v>
+      </c>
+      <c r="D30" s="10">
+        <v>43889</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="24">
+        <v>36</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A31" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="10">
+        <v>43824</v>
+      </c>
+      <c r="D31" s="10">
+        <v>43827</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
+        <v>27</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A32" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="10">
+        <v>43830</v>
+      </c>
+      <c r="D32" s="10">
+        <v>43833</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" ref="E32:E47" si="3">D32-C32</f>
+        <v>3</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="24">
+        <v>27</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A33" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="10">
+        <v>43833</v>
+      </c>
+      <c r="D33" s="10">
+        <v>43836</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="24">
+        <v>27</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1">
+      <c r="A34" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="10">
+        <v>43837</v>
+      </c>
+      <c r="D34" s="10">
+        <v>43840</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="24">
+        <v>27</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1">
+      <c r="A35" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="10">
+        <v>43879</v>
+      </c>
+      <c r="D35" s="10">
+        <v>43883</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="24">
+        <v>36</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1">
+      <c r="A36" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="10">
+        <v>43885</v>
+      </c>
+      <c r="D36" s="10">
+        <v>43889</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="24">
+        <v>36</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A37" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="10">
+        <v>43822</v>
+      </c>
+      <c r="D37" s="10">
+        <v>43827</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="24">
+        <v>45</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1">
+      <c r="A38" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="10">
+        <v>43831</v>
+      </c>
+      <c r="D38" s="10">
+        <v>43836</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="24">
+        <v>45</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1">
+      <c r="A39" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="10">
+        <v>43839</v>
+      </c>
+      <c r="D39" s="10">
+        <v>43844</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="24">
+        <v>45</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1">
+      <c r="A40" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="10">
+        <v>43881</v>
+      </c>
+      <c r="D40" s="10">
+        <v>43885</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="24">
+        <v>36</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1">
+      <c r="A41" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="10">
+        <v>43886</v>
+      </c>
+      <c r="D41" s="10">
+        <v>43890</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="24">
+        <v>36</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1">
+      <c r="A42" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="10">
+        <v>43837</v>
+      </c>
+      <c r="D42" s="10">
+        <v>43838</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="24">
         <v>9</v>
       </c>
-      <c r="H26" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A27" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="H42" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1">
+      <c r="A43" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="10">
+        <v>43879</v>
+      </c>
+      <c r="D43" s="10">
+        <v>43880</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="10">
-        <v>43825</v>
-      </c>
-      <c r="D27" s="10">
-        <v>43826</v>
-      </c>
-      <c r="E27" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <v>9</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A28" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="10">
-        <v>43825</v>
-      </c>
-      <c r="D28" s="10">
-        <v>43826</v>
-      </c>
-      <c r="E28" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="24">
-        <v>9</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A29" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="10">
-        <v>43830</v>
-      </c>
-      <c r="D29" s="10">
-        <v>43832</v>
-      </c>
-      <c r="E29" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="24">
-        <v>14</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
-      <c r="A30" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="10">
-        <v>43833</v>
-      </c>
-      <c r="D30" s="10">
-        <v>43834</v>
-      </c>
-      <c r="E30" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="24">
-        <v>7</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
-      <c r="A31" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="10">
-        <v>43825</v>
-      </c>
-      <c r="D31" s="10">
-        <v>43830</v>
-      </c>
-      <c r="E31" s="25">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="24">
-        <v>24</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
-      <c r="A32" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="10">
-        <v>43836</v>
-      </c>
-      <c r="D32" s="10">
-        <v>43837</v>
-      </c>
-      <c r="E32" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="24">
-        <v>8</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
-      <c r="A33" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="10">
-        <v>43825</v>
-      </c>
-      <c r="D33" s="10">
-        <v>43830</v>
-      </c>
-      <c r="E33" s="25">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="24">
-        <v>21</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
-      <c r="A34" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="10">
-        <v>43831</v>
-      </c>
-      <c r="D34" s="10">
-        <v>43833</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="24">
-        <v>18</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="A35" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="10">
-        <v>43836</v>
-      </c>
-      <c r="D35" s="10">
-        <v>43838</v>
-      </c>
-      <c r="E35" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="24">
-        <v>18</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1">
-      <c r="A36" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="10">
-        <v>43838</v>
-      </c>
-      <c r="D36" s="10">
-        <v>43840</v>
-      </c>
-      <c r="E36" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="24">
-        <v>14</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1">
-      <c r="A37" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="10">
-        <v>43879</v>
-      </c>
-      <c r="D37" s="10">
-        <v>43881</v>
-      </c>
-      <c r="E37" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="24">
-        <v>14</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1">
-      <c r="A38" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="10">
-        <v>43882</v>
-      </c>
-      <c r="D38" s="10">
-        <v>43883</v>
-      </c>
-      <c r="E38" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="24">
-        <v>8</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1">
-      <c r="A39" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="10">
-        <v>43885</v>
-      </c>
-      <c r="D39" s="10">
-        <v>43887</v>
-      </c>
-      <c r="E39" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="24">
-        <v>16</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="10">
-        <v>43888</v>
-      </c>
-      <c r="D40" s="10">
-        <v>43889</v>
-      </c>
-      <c r="E40" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="24">
-        <v>8</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1">
-      <c r="A41" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="10">
-        <v>43892</v>
-      </c>
-      <c r="D41" s="10">
-        <v>43896</v>
-      </c>
-      <c r="E41" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="24">
-        <v>18</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1">
-      <c r="A42" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="10">
-        <v>43892</v>
-      </c>
-      <c r="D42" s="10">
-        <v>43896</v>
-      </c>
-      <c r="E42" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="24">
-        <v>18</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1">
-      <c r="A43" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="10">
-        <v>43824</v>
-      </c>
-      <c r="D43" s="10">
-        <v>43825</v>
-      </c>
-      <c r="E43" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>0</v>
       </c>
       <c r="G43" s="24">
         <v>9</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
-      <c r="A44" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1">
+      <c r="A44" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C44" s="10">
-        <v>43824</v>
+        <v>43829</v>
       </c>
       <c r="D44" s="10">
-        <v>43825</v>
+        <v>43830</v>
       </c>
       <c r="E44" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G44" s="24">
         <v>9</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1">
-      <c r="A45" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C45" s="10">
-        <v>43826</v>
+        <v>43892</v>
       </c>
       <c r="D45" s="10">
-        <v>43827</v>
+        <v>43893</v>
       </c>
       <c r="E45" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G45" s="24">
         <v>9</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1">
-      <c r="A46" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1">
+      <c r="A46" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C46" s="10">
-        <v>43829</v>
+        <v>43894</v>
       </c>
       <c r="D46" s="10">
-        <v>43830</v>
+        <v>43896</v>
       </c>
       <c r="E46" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G46" s="24">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1">
-      <c r="A47" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1">
+      <c r="A47" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C47" s="10">
-        <v>43831</v>
+        <v>43897</v>
       </c>
       <c r="D47" s="10">
-        <v>43832</v>
+        <v>43899</v>
       </c>
       <c r="E47" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G47" s="24">
-        <v>7</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1">
       <c r="A48" s="30" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="10">
-        <v>43832</v>
+        <v>43824</v>
       </c>
       <c r="D48" s="10">
-        <v>43833</v>
+        <v>43825</v>
       </c>
       <c r="E48" s="25">
         <f t="shared" si="0"/>
@@ -34779,21 +34873,22 @@
         <v>9</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1">
       <c r="A49" s="30" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="10">
-        <v>43836</v>
+        <v>43824</v>
       </c>
       <c r="D49" s="10">
-        <v>43837</v>
+        <v>43825</v>
       </c>
       <c r="E49" s="25">
         <f t="shared" si="0"/>
@@ -34803,24 +34898,25 @@
         <v>0</v>
       </c>
       <c r="G49" s="24">
-        <v>7</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1">
       <c r="A50" s="30" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="10">
-        <v>43838</v>
+        <v>43826</v>
       </c>
       <c r="D50" s="10">
-        <v>43839</v>
+        <v>43827</v>
       </c>
       <c r="E50" s="25">
         <f t="shared" si="0"/>
@@ -34833,21 +34929,22 @@
         <v>9</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1">
       <c r="A51" s="30" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="10">
-        <v>43839</v>
+        <v>43829</v>
       </c>
       <c r="D51" s="10">
-        <v>43840</v>
+        <v>43830</v>
       </c>
       <c r="E51" s="25">
         <f t="shared" si="0"/>
@@ -34860,535 +34957,649 @@
         <v>9</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1">
       <c r="A52" s="30" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="10">
-        <v>43839</v>
+        <v>43831</v>
       </c>
       <c r="D52" s="10">
-        <v>43840</v>
+        <v>43832</v>
       </c>
       <c r="E52" s="25">
-        <f t="shared" ref="E52:E60" si="1">D52-C52</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G52" s="24">
-        <v>9</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1">
       <c r="A53" s="30" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="10">
-        <v>43843</v>
+        <v>43832</v>
       </c>
       <c r="D53" s="10">
-        <v>43844</v>
+        <v>43833</v>
       </c>
       <c r="E53" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G53" s="24">
-        <v>8</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1">
       <c r="A54" s="30" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="10">
-        <v>43879</v>
+        <v>43836</v>
       </c>
       <c r="D54" s="10">
-        <v>43880</v>
+        <v>43837</v>
       </c>
       <c r="E54" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G54" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="I54" s="24"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1">
       <c r="A55" s="30" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="10">
-        <v>43881</v>
+        <v>43838</v>
       </c>
       <c r="D55" s="10">
-        <v>43882</v>
+        <v>43839</v>
       </c>
       <c r="E55" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G55" s="24">
-        <v>8</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1">
       <c r="A56" s="30" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="10">
-        <v>43885</v>
+        <v>43839</v>
       </c>
       <c r="D56" s="10">
-        <v>43887</v>
+        <v>43840</v>
       </c>
       <c r="E56" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G56" s="24">
-        <v>14</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="24"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1">
       <c r="A57" s="30" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="10">
-        <v>43888</v>
+        <v>43839</v>
       </c>
       <c r="D57" s="10">
-        <v>43889</v>
+        <v>43840</v>
       </c>
       <c r="E57" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E57:E65" si="4">D57-C57</f>
         <v>1</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G57" s="24">
-        <v>7</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57" s="24"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1">
       <c r="A58" s="30" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C58" s="10">
-        <v>43892</v>
+        <v>43843</v>
       </c>
       <c r="D58" s="10">
-        <v>43894</v>
+        <v>43844</v>
       </c>
       <c r="E58" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G58" s="24">
-        <v>18</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1">
       <c r="A59" s="30" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B59" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="10">
-        <v>43892</v>
+        <v>43879</v>
       </c>
       <c r="D59" s="10">
-        <v>43894</v>
+        <v>43880</v>
       </c>
       <c r="E59" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G59" s="24">
-        <v>18</v>
-      </c>
-      <c r="H59" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="24"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1">
       <c r="A60" s="30" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="10">
-        <v>43895</v>
+        <v>43881</v>
       </c>
       <c r="D60" s="10">
-        <v>43896</v>
+        <v>43882</v>
       </c>
       <c r="E60" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G60" s="24">
+        <v>8</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" s="24"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1">
+      <c r="A61" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="10">
+        <v>43885</v>
+      </c>
+      <c r="D61" s="10">
+        <v>43887</v>
+      </c>
+      <c r="E61" s="25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="24">
+        <v>14</v>
+      </c>
+      <c r="H61" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1">
+      <c r="A62" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="10">
+        <v>43888</v>
+      </c>
+      <c r="D62" s="10">
+        <v>43889</v>
+      </c>
+      <c r="E62" s="25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="24">
+        <v>7</v>
+      </c>
+      <c r="H62" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" s="24"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1">
+      <c r="A63" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="10">
+        <v>43892</v>
+      </c>
+      <c r="D63" s="10">
+        <v>43894</v>
+      </c>
+      <c r="E63" s="25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="24">
         <v>18</v>
       </c>
-      <c r="H60" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1">
-      <c r="A61" s="12" t="s">
+      <c r="H63" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" s="24"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1">
+      <c r="A64" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="10">
+        <v>43892</v>
+      </c>
+      <c r="D64" s="10">
+        <v>43894</v>
+      </c>
+      <c r="E64" s="25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="24">
+        <v>18</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" s="24"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1">
+      <c r="A65" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="10">
+        <v>43895</v>
+      </c>
+      <c r="D65" s="10">
+        <v>43896</v>
+      </c>
+      <c r="E65" s="25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="24">
+        <v>18</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I65" s="24"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1">
+      <c r="A66" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="26">
-        <f>SUM(G4:G60)</f>
-        <v>635</v>
-      </c>
-      <c r="H61" s="32"/>
-    </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1">
-      <c r="G62" s="4"/>
-      <c r="H62" s="33"/>
-    </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1">
-      <c r="G63" s="4"/>
-      <c r="H63" s="33"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1">
-      <c r="G64" s="4"/>
-      <c r="H64" s="33"/>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1">
-      <c r="A65" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="33"/>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1">
-      <c r="A66" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="33"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1">
-      <c r="A67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="6">
-        <v>0.4</v>
-      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="26">
+        <f>SUM(G4:G65)</f>
+        <v>1032</v>
+      </c>
+      <c r="H66" s="32"/>
+      <c r="I66" s="26">
+        <f>SUM(I4:I65)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1">
       <c r="G67" s="4"/>
       <c r="H67" s="33"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1">
-      <c r="A68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="6">
-        <v>0.4</v>
-      </c>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1">
       <c r="G68" s="4"/>
       <c r="H68" s="33"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="6">
-        <v>0</v>
-      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1">
       <c r="G69" s="4"/>
       <c r="H69" s="33"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1">
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1">
+      <c r="A70" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1"/>
       <c r="G70" s="4"/>
       <c r="H70" s="33"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0.6</v>
+      </c>
       <c r="G71" s="4"/>
       <c r="H71" s="33"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1">
-      <c r="A72" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="1"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0.4</v>
+      </c>
       <c r="G72" s="4"/>
       <c r="H72" s="33"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1">
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B73" s="6">
+        <v>0.4</v>
+      </c>
       <c r="G73" s="4"/>
       <c r="H73" s="33"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1">
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0</v>
+      </c>
       <c r="G74" s="4"/>
       <c r="H74" s="33"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1">
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1">
       <c r="G75" s="4"/>
       <c r="H75" s="33"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1">
       <c r="G76" s="4"/>
       <c r="H76" s="33"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1">
-      <c r="A77" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1">
+      <c r="A77" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1"/>
       <c r="G77" s="4"/>
       <c r="H77" s="33"/>
-    </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1">
-      <c r="A78" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="18">
-        <v>11</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="7"/>
       <c r="G78" s="4"/>
       <c r="H78" s="33"/>
-    </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1">
-      <c r="A79" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="18">
-        <v>21</v>
-      </c>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" ht="15" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="7"/>
       <c r="G79" s="4"/>
       <c r="H79" s="33"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1">
-      <c r="A80" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="18">
-        <v>18</v>
-      </c>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1">
       <c r="G80" s="4"/>
       <c r="H80" s="33"/>
-    </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1">
-      <c r="A81" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="18">
-        <v>11</v>
-      </c>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" ht="15" customHeight="1">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="33"/>
-    </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1">
-      <c r="A82" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82" s="18">
-        <v>17</v>
-      </c>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1">
+      <c r="A82" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="33"/>
-    </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1">
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" ht="15" customHeight="1">
+      <c r="A83" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="18">
+        <v>6</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="33"/>
-    </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1">
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1">
+      <c r="A84" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="18">
+        <v>21</v>
+      </c>
       <c r="G84" s="4"/>
       <c r="H84" s="33"/>
-    </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1">
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1">
+      <c r="A85" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="18">
+        <v>6</v>
+      </c>
       <c r="G85" s="4"/>
       <c r="H85" s="33"/>
-    </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1">
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1">
+      <c r="A86" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="18">
+        <v>11</v>
+      </c>
       <c r="G86" s="4"/>
       <c r="H86" s="33"/>
-    </row>
-    <row r="87" spans="1:19" ht="15" customHeight="1">
-      <c r="B87" s="8"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1">
+      <c r="A87" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="18">
+        <v>17</v>
+      </c>
+      <c r="D87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="33"/>
-    </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1"/>
-    <row r="89" spans="1:19" ht="15" customHeight="1"/>
-    <row r="90" spans="1:19" ht="15" customHeight="1"/>
-    <row r="91" spans="1:19" ht="15" customHeight="1"/>
-    <row r="92" spans="1:19" ht="15" customHeight="1"/>
-    <row r="93" spans="1:19" ht="16.5" customHeight="1">
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-    </row>
-    <row r="94" spans="1:19" ht="16.5" customHeight="1">
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:19" ht="16.5" customHeight="1">
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-    </row>
-    <row r="96" spans="1:19" ht="16.5" customHeight="1">
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-    </row>
-    <row r="97" spans="9:19" ht="16.5" customHeight="1">
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-    </row>
-    <row r="98" spans="9:19" ht="16.5" customHeight="1">
-      <c r="I98" s="4"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" ht="15" customHeight="1">
+      <c r="G88" s="4"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1">
+      <c r="G89" s="4"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" ht="15" customHeight="1">
+      <c r="G90" s="4"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1">
+      <c r="G91" s="4"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1">
+      <c r="B92" s="8"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" ht="15" customHeight="1"/>
+    <row r="94" spans="1:9" ht="15" customHeight="1"/>
+    <row r="95" spans="1:9" ht="15" customHeight="1"/>
+    <row r="96" spans="1:9" ht="15" customHeight="1"/>
+    <row r="97" spans="10:19" ht="15" customHeight="1"/>
+    <row r="98" spans="10:19" ht="16.5" customHeight="1">
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -35400,8 +35611,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="9:19" ht="16.5" customHeight="1">
-      <c r="I99" s="4"/>
+    <row r="99" spans="10:19" ht="16.5" customHeight="1">
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -35413,8 +35623,7 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="9:19" ht="15" customHeight="1">
-      <c r="I100" s="4"/>
+    <row r="100" spans="10:19" ht="16.5" customHeight="1">
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -35426,8 +35635,7 @@
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="9:19" ht="15" customHeight="1">
-      <c r="I101" s="4"/>
+    <row r="101" spans="10:19" ht="16.5" customHeight="1">
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -35439,8 +35647,7 @@
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="9:19" ht="15" customHeight="1">
-      <c r="I102" s="4"/>
+    <row r="102" spans="10:19" ht="16.5" customHeight="1">
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -35452,8 +35659,7 @@
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="9:19" ht="15" customHeight="1">
-      <c r="I103" s="4"/>
+    <row r="103" spans="10:19" ht="16.5" customHeight="1">
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -35465,8 +35671,7 @@
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="9:19" ht="15" customHeight="1">
-      <c r="I104" s="4"/>
+    <row r="104" spans="10:19" ht="16.5" customHeight="1">
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -35478,8 +35683,7 @@
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="9:19" ht="15" customHeight="1">
-      <c r="I105" s="4"/>
+    <row r="105" spans="10:19" ht="15" customHeight="1">
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -35491,8 +35695,7 @@
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="9:19" ht="15" customHeight="1">
-      <c r="I106" s="4"/>
+    <row r="106" spans="10:19" ht="15" customHeight="1">
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -35504,8 +35707,7 @@
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="9:19" ht="15" customHeight="1">
-      <c r="I107" s="4"/>
+    <row r="107" spans="10:19" ht="15" customHeight="1">
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -35517,8 +35719,7 @@
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="9:19" ht="15" customHeight="1">
-      <c r="I108" s="4"/>
+    <row r="108" spans="10:19" ht="15" customHeight="1">
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -35530,8 +35731,7 @@
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="9:19" ht="15" customHeight="1">
-      <c r="I109" s="4"/>
+    <row r="109" spans="10:19" ht="15" customHeight="1">
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -35543,8 +35743,7 @@
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="9:19" ht="15" customHeight="1">
-      <c r="I110" s="4"/>
+    <row r="110" spans="10:19" ht="15" customHeight="1">
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -35556,8 +35755,7 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="9:19" ht="15" customHeight="1">
-      <c r="I111" s="4"/>
+    <row r="111" spans="10:19" ht="15" customHeight="1">
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -35569,8 +35767,7 @@
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="9:19" ht="15" customHeight="1">
-      <c r="I112" s="4"/>
+    <row r="112" spans="10:19" ht="15" customHeight="1">
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -35582,8 +35779,7 @@
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="9:19" ht="15" customHeight="1">
-      <c r="I113" s="4"/>
+    <row r="113" spans="10:19" ht="15" customHeight="1">
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -35595,8 +35791,7 @@
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="9:19" ht="15" customHeight="1">
-      <c r="I114" s="4"/>
+    <row r="114" spans="10:19" ht="15" customHeight="1">
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -35608,8 +35803,7 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="9:19" ht="15" customHeight="1">
-      <c r="I115" s="4"/>
+    <row r="115" spans="10:19" ht="15" customHeight="1">
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -35621,8 +35815,7 @@
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="9:19" ht="15" customHeight="1">
-      <c r="I116" s="4"/>
+    <row r="116" spans="10:19" ht="15" customHeight="1">
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -35634,8 +35827,7 @@
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="9:19" ht="15" customHeight="1">
-      <c r="I117" s="4"/>
+    <row r="117" spans="10:19" ht="15" customHeight="1">
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -35647,8 +35839,7 @@
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="9:19" ht="15" customHeight="1">
-      <c r="I118" s="4"/>
+    <row r="118" spans="10:19" ht="15" customHeight="1">
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
@@ -35660,8 +35851,7 @@
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="9:19" ht="15" customHeight="1">
-      <c r="I119" s="4"/>
+    <row r="119" spans="10:19" ht="15" customHeight="1">
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
@@ -35673,8 +35863,7 @@
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="9:19" ht="15" customHeight="1">
-      <c r="I120" s="4"/>
+    <row r="120" spans="10:19" ht="15" customHeight="1">
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -35686,8 +35875,7 @@
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="9:19" ht="15" customHeight="1">
-      <c r="I121" s="4"/>
+    <row r="121" spans="10:19" ht="15" customHeight="1">
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
@@ -35699,8 +35887,7 @@
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="9:19" ht="15" customHeight="1">
-      <c r="I122" s="4"/>
+    <row r="122" spans="10:19" ht="15" customHeight="1">
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -35712,8 +35899,7 @@
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="9:19" ht="15" customHeight="1">
-      <c r="I123" s="4"/>
+    <row r="123" spans="10:19" ht="15" customHeight="1">
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -35725,8 +35911,7 @@
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="9:19">
-      <c r="I124" s="4"/>
+    <row r="124" spans="10:19" ht="15" customHeight="1">
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -35738,8 +35923,7 @@
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="9:19">
-      <c r="I125" s="4"/>
+    <row r="125" spans="10:19" ht="15" customHeight="1">
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -35751,8 +35935,7 @@
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="9:19">
-      <c r="I126" s="4"/>
+    <row r="126" spans="10:19" ht="15" customHeight="1">
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -35764,8 +35947,7 @@
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="9:19">
-      <c r="I127" s="4"/>
+    <row r="127" spans="10:19" ht="15" customHeight="1">
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -35777,8 +35959,7 @@
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="9:19">
-      <c r="I128" s="4"/>
+    <row r="128" spans="10:19" ht="15" customHeight="1">
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -35790,13 +35971,73 @@
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
     </row>
+    <row r="129" spans="10:19">
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+    </row>
+    <row r="130" spans="10:19">
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+    </row>
+    <row r="131" spans="10:19">
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+    </row>
+    <row r="132" spans="10:19">
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+    </row>
+    <row r="133" spans="10:19">
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B60 B4:B24" xr:uid="{A831E3A7-8EBE-4F66-90A5-3CD1673F4CA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B65 B4:B24" xr:uid="{A831E3A7-8EBE-4F66-90A5-3CD1673F4CA4}">
       <formula1>"Đạt Huỳnh, Anh Minh, Quang Vương, Quốc Nhân, Như Phương"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H60" xr:uid="{D6902BE1-7239-4E55-819C-7F837102A60E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H65" xr:uid="{D6902BE1-7239-4E55-819C-7F837102A60E}">
       <formula1>"Cao, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F8FEDC-98D0-4B34-AAE8-80BA1959F002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06421837-179E-4F51-B01F-91DD497B049E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10605" yWindow="1380" windowWidth="10230" windowHeight="10035" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -33564,8 +33564,8 @@
   </sheetPr>
   <dimension ref="A2:S133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33642,7 +33642,7 @@
         <v>63</v>
       </c>
       <c r="I4" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
@@ -33671,7 +33671,9 @@
       <c r="H5" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="24">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="28" t="s">
@@ -33699,7 +33701,9 @@
       <c r="H6" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="24">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="28" t="s">
@@ -33727,7 +33731,9 @@
       <c r="H7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="24">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="28" t="s">
@@ -33755,7 +33761,9 @@
       <c r="H8" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="24">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="28" t="s">
@@ -33783,7 +33791,9 @@
       <c r="H9" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="24">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="28" t="s">
@@ -33811,7 +33821,9 @@
       <c r="H10" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="24">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="28" t="s">
@@ -33839,7 +33851,9 @@
       <c r="H11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="24">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="28" t="s">
@@ -35371,7 +35385,7 @@
       <c r="H66" s="32"/>
       <c r="I66" s="26">
         <f>SUM(I4:I65)</f>
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06421837-179E-4F51-B01F-91DD497B049E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D50CC-4B9C-46BE-ADB3-0838F9F7E07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10605" yWindow="1380" windowWidth="10230" windowHeight="10035" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <sheet name="Tổng quan" sheetId="9" r:id="rId5"/>
     <sheet name="Ngân sách" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33564,8 +33566,8 @@
   </sheetPr>
   <dimension ref="A2:S133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -35197,7 +35199,9 @@
       <c r="H59" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I59" s="24"/>
+      <c r="I59" s="24">
+        <v>14</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1">
       <c r="A60" s="30" t="s">
@@ -35225,7 +35229,9 @@
       <c r="H60" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I60" s="24"/>
+      <c r="I60" s="24">
+        <v>11</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1">
       <c r="A61" s="30" t="s">
@@ -35253,7 +35259,9 @@
       <c r="H61" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I61" s="24"/>
+      <c r="I61" s="24">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1">
       <c r="A62" s="30" t="s">
@@ -35281,7 +35289,9 @@
       <c r="H62" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="24"/>
+      <c r="I62" s="24">
+        <v>16</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1">
       <c r="A63" s="30" t="s">
@@ -35309,7 +35319,9 @@
       <c r="H63" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I63" s="24"/>
+      <c r="I63" s="24">
+        <v>6</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1">
       <c r="A64" s="30" t="s">
@@ -35337,7 +35349,9 @@
       <c r="H64" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I64" s="24"/>
+      <c r="I64" s="24">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1">
       <c r="A65" s="30" t="s">
@@ -35365,7 +35379,9 @@
       <c r="H65" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I65" s="24"/>
+      <c r="I65" s="24">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1">
       <c r="A66" s="12" t="s">
@@ -35385,7 +35401,7 @@
       <c r="H66" s="32"/>
       <c r="I66" s="26">
         <f>SUM(I4:I65)</f>
-        <v>94</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D50CC-4B9C-46BE-ADB3-0838F9F7E07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1938D545-E4CC-4CD8-A3BE-C1F8BD7254B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="10230" windowHeight="10035" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -20,14 +20,12 @@
     <sheet name="Tổng quan" sheetId="9" r:id="rId5"/>
     <sheet name="Ngân sách" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -3450,7 +3448,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3</c:v>
@@ -33566,8 +33564,8 @@
   </sheetPr>
   <dimension ref="A2:S133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33883,7 +33881,9 @@
       <c r="H12" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="24">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="28" t="s">
@@ -33911,7 +33911,9 @@
       <c r="H13" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="24">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="28" t="s">
@@ -33939,7 +33941,9 @@
       <c r="H14" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="24">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="28" t="s">
@@ -33967,7 +33971,9 @@
       <c r="H15" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="I15" s="24">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="28" t="s">
@@ -33995,7 +34001,9 @@
       <c r="H16" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="24">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="28" t="s">
@@ -34023,7 +34031,9 @@
       <c r="H17" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="24">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="28" t="s">
@@ -34051,7 +34061,9 @@
       <c r="H18" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="24">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="28" t="s">
@@ -34079,7 +34091,9 @@
       <c r="H19" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="24">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="28" t="s">
@@ -34107,7 +34121,9 @@
       <c r="H20" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="24">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1">
       <c r="A21" s="28" t="s">
@@ -34135,7 +34151,9 @@
       <c r="H21" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="24">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1">
       <c r="A22" s="28" t="s">
@@ -34163,7 +34181,9 @@
       <c r="H22" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="24"/>
+      <c r="I22" s="24">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1">
       <c r="A23" s="28" t="s">
@@ -34191,7 +34211,9 @@
       <c r="H23" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="24"/>
+      <c r="I23" s="24">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1">
       <c r="A24" s="28" t="s">
@@ -34204,22 +34226,24 @@
         <v>43895</v>
       </c>
       <c r="D24" s="10">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E24" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G24" s="24">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="24"/>
+      <c r="I24" s="24">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1">
       <c r="A25" s="29" t="s">
@@ -35396,12 +35420,12 @@
       <c r="F66" s="13"/>
       <c r="G66" s="26">
         <f>SUM(G4:G65)</f>
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="H66" s="32"/>
       <c r="I66" s="26">
         <f>SUM(I4:I65)</f>
-        <v>176</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1938D545-E4CC-4CD8-A3BE-C1F8BD7254B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5120A8-3F31-45FF-9C4B-9E04A8F182CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="10230" windowHeight="10035" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -233,28 +233,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Quá hạn</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, đang thực hiện</t>
-    </r>
-  </si>
-  <si>
     <t>Project Name:</t>
   </si>
   <si>
@@ -413,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -555,20 +533,6 @@
     <font>
       <sz val="10"/>
       <color theme="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="7" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1052,122 +1016,122 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4142,13 +4106,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5505,7 +5469,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
       <c r="A1" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -5574,10 +5538,10 @@
       <c r="J3" s="69"/>
       <c r="K3" s="43"/>
       <c r="L3" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="M3" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="N3" s="71"/>
       <c r="O3" s="45"/>
@@ -5606,10 +5570,10 @@
       <c r="J4" s="69"/>
       <c r="K4" s="43"/>
       <c r="L4" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="70" t="s">
         <v>68</v>
-      </c>
-      <c r="M4" s="70" t="s">
-        <v>69</v>
       </c>
       <c r="N4" s="71"/>
       <c r="O4" s="45"/>
@@ -5638,10 +5602,10 @@
       <c r="J5" s="69"/>
       <c r="K5" s="43"/>
       <c r="L5" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N5" s="71"/>
       <c r="O5" s="45"/>
@@ -5670,10 +5634,10 @@
       <c r="J6" s="69"/>
       <c r="K6" s="43"/>
       <c r="L6" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="70" t="s">
         <v>71</v>
-      </c>
-      <c r="M6" s="70" t="s">
-        <v>72</v>
       </c>
       <c r="N6" s="71"/>
       <c r="O6" s="45"/>
@@ -5702,7 +5666,7 @@
       <c r="J7" s="69"/>
       <c r="K7" s="43"/>
       <c r="L7" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" s="72">
         <v>43508</v>
@@ -5818,7 +5782,7 @@
       <c r="J11" s="69"/>
       <c r="K11" s="43"/>
       <c r="L11" s="74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="75"/>
       <c r="N11" s="75"/>
@@ -5848,16 +5812,16 @@
       <c r="J12" s="69"/>
       <c r="K12" s="43"/>
       <c r="L12" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="N12" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="48" t="s">
+      <c r="O12" s="48" t="s">
         <v>77</v>
-      </c>
-      <c r="O12" s="48" t="s">
-        <v>78</v>
       </c>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
@@ -5884,16 +5848,16 @@
       <c r="J13" s="69"/>
       <c r="K13" s="43"/>
       <c r="L13" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="50">
         <v>43508</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P13" s="40"/>
       <c r="Q13" s="40"/>
@@ -33564,8 +33528,8 @@
   </sheetPr>
   <dimension ref="A2:S133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33606,13 +33570,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
@@ -34247,7 +34211,7 @@
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>16</v>
@@ -34275,7 +34239,7 @@
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>16</v>
@@ -34303,7 +34267,7 @@
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>16</v>
@@ -34319,7 +34283,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G27" s="24">
         <v>27</v>
@@ -34331,7 +34295,7 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>16</v>
@@ -34347,7 +34311,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G28" s="24">
         <v>27</v>
@@ -34359,7 +34323,7 @@
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>16</v>
@@ -34375,7 +34339,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G29" s="24">
         <v>36</v>
@@ -34387,7 +34351,7 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>16</v>
@@ -34403,7 +34367,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="24">
         <v>36</v>
@@ -34415,7 +34379,7 @@
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="63" t="s">
         <v>18</v>
@@ -34439,11 +34403,13 @@
       <c r="H31" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="24"/>
+      <c r="I31" s="24">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="63" t="s">
         <v>18</v>
@@ -34467,11 +34433,13 @@
       <c r="H32" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="24"/>
+      <c r="I32" s="24">
+        <v>22</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="63" t="s">
         <v>18</v>
@@ -34487,7 +34455,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G33" s="24">
         <v>27</v>
@@ -34495,11 +34463,13 @@
       <c r="H33" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="24"/>
+      <c r="I33" s="24">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="63" t="s">
         <v>18</v>
@@ -34515,7 +34485,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G34" s="24">
         <v>27</v>
@@ -34523,11 +34493,13 @@
       <c r="H34" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="24"/>
+      <c r="I34" s="24">
+        <v>28</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="63" t="s">
         <v>18</v>
@@ -34543,7 +34515,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G35" s="24">
         <v>36</v>
@@ -34551,11 +34523,13 @@
       <c r="H35" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="24"/>
+      <c r="I35" s="24">
+        <v>25</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>18</v>
@@ -34571,7 +34545,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G36" s="24">
         <v>36</v>
@@ -34579,11 +34553,13 @@
       <c r="H36" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I36" s="24"/>
+      <c r="I36" s="24">
+        <v>27</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>19</v>
@@ -34611,10 +34587,10 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="C38" s="10">
         <v>43831</v>
@@ -34627,7 +34603,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G38" s="24">
         <v>45</v>
@@ -34639,7 +34615,7 @@
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>19</v>
@@ -34655,7 +34631,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G39" s="24">
         <v>45</v>
@@ -34667,7 +34643,7 @@
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>19</v>
@@ -34683,7 +34659,7 @@
         <v>4</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G40" s="24">
         <v>36</v>
@@ -34695,7 +34671,7 @@
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>19</v>
@@ -34711,7 +34687,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G41" s="24">
         <v>36</v>
@@ -34723,7 +34699,7 @@
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
       <c r="A42" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>19</v>
@@ -34739,7 +34715,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G42" s="24">
         <v>9</v>
@@ -34751,7 +34727,7 @@
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>19</v>
@@ -34767,7 +34743,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G43" s="24">
         <v>9</v>
@@ -34779,7 +34755,7 @@
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
       <c r="A44" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>19</v>
@@ -34795,7 +34771,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G44" s="24">
         <v>9</v>
@@ -34807,7 +34783,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" s="23" t="s">
         <v>19</v>
@@ -34823,7 +34799,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G45" s="24">
         <v>9</v>
@@ -34835,7 +34811,7 @@
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1">
       <c r="A46" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>19</v>
@@ -34851,7 +34827,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G46" s="24">
         <v>18</v>
@@ -34863,7 +34839,7 @@
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1">
       <c r="A47" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>19</v>
@@ -34879,7 +34855,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G47" s="24">
         <v>18</v>
@@ -35425,7 +35401,7 @@
       <c r="H66" s="32"/>
       <c r="I66" s="26">
         <f>SUM(I4:I65)</f>
-        <v>337</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1">
@@ -35457,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="33"/>
@@ -35468,7 +35444,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="33"/>
@@ -35479,7 +35455,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="33"/>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5120A8-3F31-45FF-9C4B-9E04A8F182CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Tổng quan" sheetId="9" r:id="rId5"/>
     <sheet name="Ngân sách" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -390,7 +389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="32">
     <font>
       <sz val="12"/>
@@ -1148,7 +1147,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1170,7 +1169,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1249,7 +1248,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1660,7 +1659,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3439-4363-BD7E-1A05BAB9B14A}"/>
             </c:ext>
@@ -1694,7 +1693,7 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1704,7 +1703,7 @@
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1714,7 +1713,7 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1724,7 +1723,7 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1734,7 +1733,7 @@
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1744,7 +1743,7 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1754,7 +1753,7 @@
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1764,7 +1763,7 @@
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1774,7 +1773,7 @@
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1784,7 +1783,7 @@
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1794,7 +1793,7 @@
             <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000016-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1804,7 +1803,7 @@
             <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000018-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1814,7 +1813,7 @@
             <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001A-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1824,7 +1823,7 @@
             <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001C-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1834,7 +1833,7 @@
             <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001E-3439-4363-BD7E-1A05BAB9B14A}"/>
               </c:ext>
@@ -1856,11 +1855,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1878,11 +1877,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1900,11 +1899,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1922,11 +1921,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1944,11 +1943,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1966,11 +1965,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1988,11 +1987,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2010,11 +2009,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2032,11 +2031,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2054,11 +2053,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2076,11 +2075,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2098,11 +2097,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2120,11 +2119,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2142,11 +2141,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2164,11 +2163,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2186,11 +2185,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2208,11 +2207,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2230,11 +2229,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2252,11 +2251,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2274,11 +2273,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2296,11 +2295,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2318,11 +2317,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2340,11 +2339,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2362,11 +2361,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2384,11 +2383,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2406,11 +2405,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2428,11 +2427,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2450,11 +2449,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2472,11 +2471,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2494,11 +2493,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2516,11 +2515,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2538,11 +2537,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2560,11 +2559,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2582,11 +2581,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2604,11 +2603,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2626,11 +2625,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2648,11 +2647,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2670,11 +2669,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001B-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2692,11 +2691,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2714,11 +2713,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2736,11 +2735,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2758,11 +2757,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2780,11 +2779,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2802,11 +2801,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2824,11 +2823,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2846,11 +2845,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000022-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2868,11 +2867,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000024-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2890,11 +2889,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000023-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2912,11 +2911,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2934,11 +2933,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000027-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2956,11 +2955,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2978,11 +2977,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3000,11 +2999,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002D-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3022,11 +3021,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002C-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3044,11 +3043,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002B-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3066,11 +3065,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002A-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3088,11 +3087,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000029-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3129,7 +3128,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3543,7 +3542,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001F-3439-4363-BD7E-1A05BAB9B14A}"/>
             </c:ext>
@@ -3560,11 +3559,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="228589600"/>
-        <c:axId val="228590160"/>
+        <c:axId val="1077636864"/>
+        <c:axId val="1077627072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228589600"/>
+        <c:axId val="1077636864"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3621,7 +3620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228590160"/>
+        <c:crossAx val="1077627072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3629,7 +3628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228590160"/>
+        <c:axId val="1077627072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3639,7 +3638,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228589600"/>
+        <c:crossAx val="1077636864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3689,7 +3688,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3758,7 +3757,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-68D8-450F-A8FC-504D5BD3BE17}"/>
               </c:ext>
@@ -3773,7 +3772,7 @@
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-68D8-450F-A8FC-504D5BD3BE17}"/>
               </c:ext>
@@ -3788,7 +3787,7 @@
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-68D8-450F-A8FC-504D5BD3BE17}"/>
               </c:ext>
@@ -3803,7 +3802,7 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-021A-4B9D-9DD6-D042F25F714E}"/>
               </c:ext>
@@ -3820,7 +3819,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-021A-4B9D-9DD6-D042F25F714E}"/>
               </c:ext>
@@ -3873,7 +3872,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-68D8-450F-A8FC-504D5BD3BE17}"/>
             </c:ext>
@@ -3888,11 +3887,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="228119280"/>
-        <c:axId val="228119840"/>
+        <c:axId val="1082991808"/>
+        <c:axId val="1082992896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228119280"/>
+        <c:axId val="1082991808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3914,7 +3913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228119840"/>
+        <c:crossAx val="1082992896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3922,7 +3921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228119840"/>
+        <c:axId val="1082992896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3945,7 +3944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228119280"/>
+        <c:crossAx val="1082991808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3972,7 +3971,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4029,7 +4028,7 @@
                 <a:srgbClr val="008000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-2412-4898-AD3A-BD858630642F}"/>
               </c:ext>
@@ -4043,7 +4042,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-2412-4898-AD3A-BD858630642F}"/>
               </c:ext>
@@ -4057,7 +4056,7 @@
                 <a:srgbClr val="FFE70E"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-2412-4898-AD3A-BD858630642F}"/>
               </c:ext>
@@ -4073,7 +4072,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-2412-4898-AD3A-BD858630642F}"/>
               </c:ext>
@@ -4120,7 +4119,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-2412-4898-AD3A-BD858630642F}"/>
             </c:ext>
@@ -4176,7 +4175,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4250,7 +4249,7 @@
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1EC9-4AD9-8BAF-FB4269D65AD4}"/>
               </c:ext>
@@ -4267,7 +4266,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-1EC9-4AD9-8BAF-FB4269D65AD4}"/>
               </c:ext>
@@ -4296,7 +4295,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1EC9-4AD9-8BAF-FB4269D65AD4}"/>
             </c:ext>
@@ -4312,11 +4311,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="228594640"/>
-        <c:axId val="228595200"/>
+        <c:axId val="1083001056"/>
+        <c:axId val="1083001600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="228594640"/>
+        <c:axId val="1083001056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4338,7 +4337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228595200"/>
+        <c:crossAx val="1083001600"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4346,7 +4345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228595200"/>
+        <c:axId val="1083001600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90000"/>
@@ -4371,7 +4370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228594640"/>
+        <c:crossAx val="1083001056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -4977,7 +4976,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E43A0A9-67EC-43C1-9ECC-E21F9E4B0854}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E43A0A9-67EC-43C1-9ECC-E21F9E4B0854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5020,7 +5019,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95561712-ECE7-49C0-9DAF-397357D17559}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95561712-ECE7-49C0-9DAF-397357D17559}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5063,7 +5062,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1074DB-9B55-4D7B-9A74-3A55660680AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A1074DB-9B55-4D7B-9A74-3A55660680AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5106,7 +5105,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D473A46C-08F3-44BA-8676-6E6C18ED2CA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D473A46C-08F3-44BA-8676-6E6C18ED2CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5450,7 +5449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401903B-2B10-43DB-8751-463621604DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33522,14 +33521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A2:S133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -36064,10 +36063,10 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B65 B4:B24" xr:uid="{A831E3A7-8EBE-4F66-90A5-3CD1673F4CA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B65 B4:B24">
       <formula1>"Đạt Huỳnh, Anh Minh, Quang Vương, Quốc Nhân, Như Phương"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H65" xr:uid="{D6902BE1-7239-4E55-819C-7F837102A60E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H65">
       <formula1>"Cao, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36077,7 +36076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7E5121-6FB5-40E7-9C8D-529891380B18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -36092,7 +36091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3409844F-016C-4A33-8CED-3AF7F14E6F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36107,7 +36106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBF9D61-E033-4715-BD68-E02D67CFB821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36122,7 +36121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215E75F3-12D4-4C15-9D8F-19B25423DAE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78129BF8-802B-46F8-8792-2143E6491B17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B15B41-D5A2-466E-AF9A-49407736B20B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Số ngày (ngày)</t>
-  </si>
-  <si>
-    <t>Tổng thời gian = 104 ngày</t>
   </si>
   <si>
     <t>Design prototype, sequence, use case description "Login" app</t>
@@ -363,9 +360,6 @@
     <t>Design prototype, sequence, use case description "Edit, hide account" website</t>
   </si>
   <si>
-    <t>Test  "View "Forgot password" website &amp; "Change pass word" app</t>
-  </si>
-  <si>
     <t>Test  "Edit, hide account" website</t>
   </si>
   <si>
@@ -384,10 +378,13 @@
     <t>Design prototype, sequence, use case description "View organizational chart" &amp; "Forgot password"  app</t>
   </si>
   <si>
-    <t>Test  "View organizational chart" website &amp; "Forgot password"  app</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Test  "View organizational chart" website</t>
+  </si>
+  <si>
+    <t>Test  "View "Forgot password" app &amp; "Change pass word" app</t>
   </si>
 </sst>
 </file>
@@ -1119,6 +1116,27 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,27 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1496,10 +1493,10 @@
                   <c:v>Test  "View company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>Test  "View "Forgot password" website &amp; "Change pass word" app</c:v>
+                  <c:v>Test  "View "Forgot password" app &amp; "Change pass word" app</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>Test  "View organizational chart" website &amp; "Forgot password"  app</c:v>
+                  <c:v>Test  "View organizational chart" website</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>Test  "View account information" website</c:v>
@@ -3373,10 +3370,10 @@
                   <c:v>Test  "View company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>Test  "View "Forgot password" website &amp; "Change pass word" app</c:v>
+                  <c:v>Test  "View "Forgot password" app &amp; "Change pass word" app</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>Test  "View organizational chart" website &amp; "Forgot password"  app</c:v>
+                  <c:v>Test  "View organizational chart" website</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>Test  "View account information" website</c:v>
@@ -3583,7 +3580,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5513,18 +5510,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
+      <c r="A1" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -5543,16 +5540,16 @@
       <c r="Z1" s="36"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="36"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
@@ -5571,24 +5568,24 @@
       <c r="Z2" s="36"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="39"/>
       <c r="L3" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="67"/>
+      <c r="N3" s="74"/>
       <c r="O3" s="41"/>
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
@@ -5603,24 +5600,24 @@
       <c r="Z3" s="36"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="39"/>
       <c r="L4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="67"/>
+      <c r="N4" s="74"/>
       <c r="O4" s="41"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
@@ -5635,24 +5632,24 @@
       <c r="Z4" s="36"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="39"/>
       <c r="L5" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="67"/>
+        <v>62</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="74"/>
       <c r="O5" s="41"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
@@ -5667,24 +5664,24 @@
       <c r="Z5" s="36"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="39"/>
       <c r="L6" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="67"/>
+      <c r="N6" s="74"/>
       <c r="O6" s="41"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
@@ -5699,24 +5696,24 @@
       <c r="Z6" s="36"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="39"/>
       <c r="L7" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="68">
+        <v>65</v>
+      </c>
+      <c r="M7" s="75">
         <v>43508</v>
       </c>
-      <c r="N7" s="69"/>
+      <c r="N7" s="76"/>
       <c r="O7" s="41"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="36"/>
@@ -5731,16 +5728,16 @@
       <c r="Z7" s="36"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="36"/>
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
@@ -5759,16 +5756,16 @@
       <c r="Z8" s="36"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="36"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
@@ -5787,16 +5784,16 @@
       <c r="Z9" s="36"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="36"/>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
@@ -5815,23 +5812,23 @@
       <c r="Z10" s="36"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="39"/>
-      <c r="L11" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
+      <c r="L11" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="36"/>
@@ -5845,28 +5842,28 @@
       <c r="Z11" s="36"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="39"/>
       <c r="L12" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="44" t="s">
+      <c r="N12" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="44" t="s">
+      <c r="O12" s="44" t="s">
         <v>70</v>
-      </c>
-      <c r="O12" s="44" t="s">
-        <v>71</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -5881,28 +5878,28 @@
       <c r="Z12" s="36"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="39"/>
       <c r="L13" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" s="46">
         <v>43508</v>
       </c>
       <c r="N13" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
@@ -5917,16 +5914,16 @@
       <c r="Z13" s="36"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="39"/>
       <c r="L14" s="49"/>
       <c r="M14" s="50"/>
@@ -5945,16 +5942,16 @@
       <c r="Z14" s="36"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="39"/>
       <c r="L15" s="49"/>
       <c r="M15" s="50"/>
@@ -5973,16 +5970,16 @@
       <c r="Z15" s="36"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="39"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52"/>
@@ -6001,16 +5998,16 @@
       <c r="Z16" s="36"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="39"/>
       <c r="L17" s="51"/>
       <c r="M17" s="52"/>
@@ -6029,16 +6026,16 @@
       <c r="Z17" s="36"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="39"/>
       <c r="L18" s="51"/>
       <c r="M18" s="52"/>
@@ -6057,16 +6054,16 @@
       <c r="Z18" s="36"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="39"/>
       <c r="L19" s="51"/>
       <c r="M19" s="52"/>
@@ -6085,16 +6082,16 @@
       <c r="Z19" s="36"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="39"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52"/>
@@ -33573,8 +33570,8 @@
   </sheetPr>
   <dimension ref="A2:T133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33597,10 +33594,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -33619,21 +33616,21 @@
         <v>14</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="79">
+      <c r="A4" s="66">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>24</v>
+      <c r="B4" s="61" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>17</v>
@@ -33655,18 +33652,18 @@
         <v>9</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="79">
+      <c r="A5" s="66">
         <v>2</v>
       </c>
-      <c r="B5" s="74" t="s">
-        <v>25</v>
+      <c r="B5" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>17</v>
@@ -33688,18 +33685,18 @@
         <v>9</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="79">
+      <c r="A6" s="66">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>26</v>
+      <c r="B6" s="61" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>17</v>
@@ -33721,18 +33718,18 @@
         <v>10</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="79">
+      <c r="A7" s="66">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
-        <v>27</v>
+      <c r="B7" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>17</v>
@@ -33754,18 +33751,18 @@
         <v>10</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="79">
+      <c r="A8" s="66">
         <v>5</v>
       </c>
-      <c r="B8" s="74" t="s">
-        <v>28</v>
+      <c r="B8" s="61" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>17</v>
@@ -33787,18 +33784,18 @@
         <v>8</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="79">
+      <c r="A9" s="66">
         <v>6</v>
       </c>
-      <c r="B9" s="74" t="s">
-        <v>29</v>
+      <c r="B9" s="61" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>17</v>
@@ -33820,18 +33817,18 @@
         <v>8</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="79">
+      <c r="A10" s="66">
         <v>7</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>33</v>
+      <c r="B10" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -33853,18 +33850,18 @@
         <v>10</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="23">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="79">
+      <c r="A11" s="66">
         <v>8</v>
       </c>
-      <c r="B11" s="74" t="s">
-        <v>30</v>
+      <c r="B11" s="61" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>17</v>
@@ -33886,18 +33883,18 @@
         <v>8</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="79">
+      <c r="A12" s="66">
         <v>9</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>32</v>
+      <c r="B12" s="61" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>17</v>
@@ -33919,18 +33916,18 @@
         <v>9</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="79">
+      <c r="A13" s="66">
         <v>10</v>
       </c>
-      <c r="B13" s="74" t="s">
-        <v>31</v>
+      <c r="B13" s="61" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>17</v>
@@ -33952,18 +33949,18 @@
         <v>9</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="79">
+      <c r="A14" s="66">
         <v>11</v>
       </c>
-      <c r="B14" s="74" t="s">
-        <v>34</v>
+      <c r="B14" s="61" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>17</v>
@@ -33985,18 +33982,18 @@
         <v>9</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="79">
+      <c r="A15" s="66">
         <v>12</v>
       </c>
-      <c r="B15" s="74" t="s">
-        <v>35</v>
+      <c r="B15" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>17</v>
@@ -34018,18 +34015,18 @@
         <v>7</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="79">
+      <c r="A16" s="66">
         <v>13</v>
       </c>
-      <c r="B16" s="74" t="s">
-        <v>36</v>
+      <c r="B16" s="61" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>17</v>
@@ -34051,18 +34048,18 @@
         <v>7</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" s="23">
         <v>10.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24">
-      <c r="A17" s="79">
+      <c r="A17" s="66">
         <v>14</v>
       </c>
-      <c r="B17" s="75" t="s">
-        <v>98</v>
+      <c r="B17" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>17</v>
@@ -34084,18 +34081,18 @@
         <v>7</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" s="23">
         <v>6.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24">
-      <c r="A18" s="79">
+      <c r="A18" s="66">
         <v>15</v>
       </c>
-      <c r="B18" s="74" t="s">
-        <v>106</v>
+      <c r="B18" s="61" t="s">
+        <v>104</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>17</v>
@@ -34117,18 +34114,18 @@
         <v>7</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="79">
+      <c r="A19" s="66">
         <v>16</v>
       </c>
-      <c r="B19" s="74" t="s">
-        <v>37</v>
+      <c r="B19" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
@@ -34150,18 +34147,18 @@
         <v>9</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20" s="79">
+      <c r="A20" s="66">
         <v>17</v>
       </c>
-      <c r="B20" s="74" t="s">
-        <v>38</v>
+      <c r="B20" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>17</v>
@@ -34183,18 +34180,18 @@
         <v>18</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="23">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A21" s="79">
+      <c r="A21" s="66">
         <v>18</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>99</v>
+      <c r="B21" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>17</v>
@@ -34216,18 +34213,18 @@
         <v>9</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A22" s="79">
+      <c r="A22" s="66">
         <v>19</v>
       </c>
-      <c r="B22" s="74" t="s">
-        <v>39</v>
+      <c r="B22" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>17</v>
@@ -34249,18 +34246,18 @@
         <v>18</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A23" s="79">
+      <c r="A23" s="66">
         <v>20</v>
       </c>
-      <c r="B23" s="74" t="s">
-        <v>40</v>
+      <c r="B23" s="61" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>17</v>
@@ -34282,18 +34279,18 @@
         <v>18</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A24" s="79">
+      <c r="A24" s="66">
         <v>21</v>
       </c>
-      <c r="B24" s="74" t="s">
-        <v>41</v>
+      <c r="B24" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>17</v>
@@ -34315,18 +34312,18 @@
         <v>18</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="23">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A25" s="79">
+      <c r="A25" s="66">
         <v>22</v>
       </c>
-      <c r="B25" s="76" t="s">
-        <v>78</v>
+      <c r="B25" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>16</v>
@@ -34348,16 +34345,16 @@
         <v>27</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A26" s="79">
+      <c r="A26" s="66">
         <v>23</v>
       </c>
-      <c r="B26" s="76" t="s">
-        <v>79</v>
+      <c r="B26" s="63" t="s">
+        <v>78</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>16</v>
@@ -34379,16 +34376,16 @@
         <v>27</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A27" s="79">
+      <c r="A27" s="66">
         <v>24</v>
       </c>
-      <c r="B27" s="76" t="s">
-        <v>80</v>
+      <c r="B27" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>16</v>
@@ -34410,16 +34407,16 @@
         <v>27</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="A28" s="79">
+      <c r="A28" s="66">
         <v>25</v>
       </c>
-      <c r="B28" s="76" t="s">
-        <v>82</v>
+      <c r="B28" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>16</v>
@@ -34441,16 +34438,16 @@
         <v>27</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
-      <c r="A29" s="79">
+      <c r="A29" s="66">
         <v>26</v>
       </c>
-      <c r="B29" s="76" t="s">
-        <v>81</v>
+      <c r="B29" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>16</v>
@@ -34472,16 +34469,16 @@
         <v>36</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="79">
+      <c r="A30" s="66">
         <v>27</v>
       </c>
-      <c r="B30" s="76" t="s">
-        <v>103</v>
+      <c r="B30" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>16</v>
@@ -34503,16 +34500,16 @@
         <v>36</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A31" s="79">
+      <c r="A31" s="66">
         <v>28</v>
       </c>
-      <c r="B31" s="76" t="s">
-        <v>83</v>
+      <c r="B31" s="63" t="s">
+        <v>82</v>
       </c>
       <c r="C31" s="59" t="s">
         <v>18</v>
@@ -34534,18 +34531,18 @@
         <v>27</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" s="23">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A32" s="79">
+      <c r="A32" s="66">
         <v>29</v>
       </c>
-      <c r="B32" s="76" t="s">
-        <v>84</v>
+      <c r="B32" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="C32" s="59" t="s">
         <v>18</v>
@@ -34567,18 +34564,18 @@
         <v>27</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32" s="23">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A33" s="79">
+      <c r="A33" s="66">
         <v>30</v>
       </c>
-      <c r="B33" s="76" t="s">
-        <v>85</v>
+      <c r="B33" s="63" t="s">
+        <v>84</v>
       </c>
       <c r="C33" s="59" t="s">
         <v>18</v>
@@ -34600,18 +34597,18 @@
         <v>27</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" s="23">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
-      <c r="A34" s="79">
+      <c r="A34" s="66">
         <v>31</v>
       </c>
-      <c r="B34" s="76" t="s">
-        <v>86</v>
+      <c r="B34" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="C34" s="59" t="s">
         <v>18</v>
@@ -34633,18 +34630,18 @@
         <v>27</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" s="23">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="79">
+      <c r="A35" s="66">
         <v>32</v>
       </c>
-      <c r="B35" s="76" t="s">
-        <v>87</v>
+      <c r="B35" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="C35" s="59" t="s">
         <v>18</v>
@@ -34666,18 +34663,18 @@
         <v>36</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J35" s="23">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="79">
+      <c r="A36" s="66">
         <v>33</v>
       </c>
-      <c r="B36" s="76" t="s">
-        <v>104</v>
+      <c r="B36" s="63" t="s">
+        <v>102</v>
       </c>
       <c r="C36" s="59" t="s">
         <v>18</v>
@@ -34699,18 +34696,18 @@
         <v>36</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J36" s="23">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A37" s="79">
+      <c r="A37" s="66">
         <v>34</v>
       </c>
-      <c r="B37" s="76" t="s">
-        <v>90</v>
+      <c r="B37" s="63" t="s">
+        <v>89</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>19</v>
@@ -34732,19 +34729,19 @@
         <v>45</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
-      <c r="A38" s="79">
+      <c r="A38" s="66">
         <v>35</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="D38" s="10">
         <v>43831</v>
@@ -34763,16 +34760,16 @@
         <v>45</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="79">
+      <c r="A39" s="66">
         <v>36</v>
       </c>
-      <c r="B39" s="76" t="s">
-        <v>91</v>
+      <c r="B39" s="63" t="s">
+        <v>90</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>19</v>
@@ -34794,16 +34791,16 @@
         <v>45</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="79">
+      <c r="A40" s="66">
         <v>37</v>
       </c>
-      <c r="B40" s="76" t="s">
-        <v>92</v>
+      <c r="B40" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>19</v>
@@ -34825,16 +34822,16 @@
         <v>36</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
-      <c r="A41" s="79">
+      <c r="A41" s="66">
         <v>38</v>
       </c>
-      <c r="B41" s="76" t="s">
-        <v>93</v>
+      <c r="B41" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>19</v>
@@ -34856,16 +34853,16 @@
         <v>36</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
-      <c r="A42" s="79">
+      <c r="A42" s="66">
         <v>39</v>
       </c>
-      <c r="B42" s="76" t="s">
-        <v>94</v>
+      <c r="B42" s="63" t="s">
+        <v>93</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>19</v>
@@ -34887,16 +34884,16 @@
         <v>9</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
-      <c r="A43" s="79">
+      <c r="A43" s="66">
         <v>40</v>
       </c>
-      <c r="B43" s="76" t="s">
-        <v>105</v>
+      <c r="B43" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>19</v>
@@ -34918,16 +34915,16 @@
         <v>9</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1">
-      <c r="A44" s="79">
+      <c r="A44" s="66">
         <v>41</v>
       </c>
-      <c r="B44" s="76" t="s">
-        <v>95</v>
+      <c r="B44" s="63" t="s">
+        <v>94</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>19</v>
@@ -34949,16 +34946,16 @@
         <v>9</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44" s="23"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="79">
+      <c r="A45" s="66">
         <v>42</v>
       </c>
-      <c r="B45" s="76" t="s">
-        <v>96</v>
+      <c r="B45" s="63" t="s">
+        <v>95</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>19</v>
@@ -34980,16 +34977,16 @@
         <v>9</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1">
-      <c r="A46" s="79">
+      <c r="A46" s="66">
         <v>43</v>
       </c>
-      <c r="B46" s="76" t="s">
-        <v>97</v>
+      <c r="B46" s="63" t="s">
+        <v>96</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>19</v>
@@ -35011,16 +35008,16 @@
         <v>18</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1">
-      <c r="A47" s="79">
+      <c r="A47" s="66">
         <v>44</v>
       </c>
-      <c r="B47" s="76" t="s">
-        <v>102</v>
+      <c r="B47" s="63" t="s">
+        <v>100</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>19</v>
@@ -35042,16 +35039,16 @@
         <v>18</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1">
-      <c r="A48" s="79">
+      <c r="A48" s="66">
         <v>45</v>
       </c>
-      <c r="B48" s="77" t="s">
-        <v>42</v>
+      <c r="B48" s="64" t="s">
+        <v>41</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>20</v>
@@ -35073,16 +35070,16 @@
         <v>9</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1">
-      <c r="A49" s="79">
+      <c r="A49" s="66">
         <v>46</v>
       </c>
-      <c r="B49" s="77" t="s">
-        <v>43</v>
+      <c r="B49" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>20</v>
@@ -35104,16 +35101,16 @@
         <v>9</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1">
-      <c r="A50" s="79">
+      <c r="A50" s="66">
         <v>47</v>
       </c>
-      <c r="B50" s="77" t="s">
-        <v>44</v>
+      <c r="B50" s="64" t="s">
+        <v>43</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>20</v>
@@ -35135,16 +35132,16 @@
         <v>9</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J50" s="23"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1">
-      <c r="A51" s="79">
+      <c r="A51" s="66">
         <v>48</v>
       </c>
-      <c r="B51" s="77" t="s">
-        <v>45</v>
+      <c r="B51" s="64" t="s">
+        <v>44</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>20</v>
@@ -35166,16 +35163,16 @@
         <v>9</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" s="23"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
-      <c r="A52" s="79">
+      <c r="A52" s="66">
         <v>49</v>
       </c>
-      <c r="B52" s="77" t="s">
-        <v>46</v>
+      <c r="B52" s="64" t="s">
+        <v>45</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>20</v>
@@ -35197,16 +35194,16 @@
         <v>7</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J52" s="23"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1">
-      <c r="A53" s="79">
+      <c r="A53" s="66">
         <v>50</v>
       </c>
-      <c r="B53" s="77" t="s">
-        <v>47</v>
+      <c r="B53" s="64" t="s">
+        <v>46</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>20</v>
@@ -35228,16 +35225,16 @@
         <v>9</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J53" s="23"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1">
-      <c r="A54" s="79">
+      <c r="A54" s="66">
         <v>51</v>
       </c>
-      <c r="B54" s="77" t="s">
-        <v>48</v>
+      <c r="B54" s="64" t="s">
+        <v>47</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>20</v>
@@ -35259,16 +35256,16 @@
         <v>7</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1">
-      <c r="A55" s="79">
+      <c r="A55" s="66">
         <v>52</v>
       </c>
-      <c r="B55" s="77" t="s">
-        <v>49</v>
+      <c r="B55" s="64" t="s">
+        <v>48</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>20</v>
@@ -35290,16 +35287,16 @@
         <v>9</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J55" s="23"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1">
-      <c r="A56" s="79">
+      <c r="A56" s="66">
         <v>53</v>
       </c>
-      <c r="B56" s="77" t="s">
-        <v>50</v>
+      <c r="B56" s="64" t="s">
+        <v>49</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>20</v>
@@ -35321,16 +35318,16 @@
         <v>9</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J56" s="23"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1">
-      <c r="A57" s="79">
+      <c r="A57" s="66">
         <v>54</v>
       </c>
-      <c r="B57" s="77" t="s">
-        <v>51</v>
+      <c r="B57" s="64" t="s">
+        <v>50</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>20</v>
@@ -35352,16 +35349,16 @@
         <v>9</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J57" s="23"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1">
-      <c r="A58" s="79">
+      <c r="A58" s="66">
         <v>55</v>
       </c>
-      <c r="B58" s="77" t="s">
-        <v>52</v>
+      <c r="B58" s="64" t="s">
+        <v>51</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>20</v>
@@ -35383,16 +35380,16 @@
         <v>8</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J58" s="23"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1">
-      <c r="A59" s="79">
+      <c r="A59" s="66">
         <v>56</v>
       </c>
-      <c r="B59" s="77" t="s">
-        <v>53</v>
+      <c r="B59" s="64" t="s">
+        <v>52</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>20</v>
@@ -35414,18 +35411,18 @@
         <v>8</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J59" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1">
-      <c r="A60" s="79">
+      <c r="A60" s="66">
         <v>57</v>
       </c>
-      <c r="B60" s="77" t="s">
-        <v>54</v>
+      <c r="B60" s="64" t="s">
+        <v>53</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>20</v>
@@ -35447,18 +35444,18 @@
         <v>8</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J60" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1">
-      <c r="A61" s="79">
+      <c r="A61" s="66">
         <v>58</v>
       </c>
-      <c r="B61" s="77" t="s">
-        <v>100</v>
+      <c r="B61" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>20</v>
@@ -35480,18 +35477,18 @@
         <v>14</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J61" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1">
-      <c r="A62" s="79">
+      <c r="A62" s="66">
         <v>59</v>
       </c>
-      <c r="B62" s="77" t="s">
-        <v>107</v>
+      <c r="B62" s="64" t="s">
+        <v>106</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>20</v>
@@ -35513,18 +35510,18 @@
         <v>7</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J62" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1">
-      <c r="A63" s="79">
+      <c r="A63" s="66">
         <v>60</v>
       </c>
-      <c r="B63" s="77" t="s">
-        <v>55</v>
+      <c r="B63" s="64" t="s">
+        <v>54</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>20</v>
@@ -35546,18 +35543,18 @@
         <v>18</v>
       </c>
       <c r="I63" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J63" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
-      <c r="A64" s="79">
+      <c r="A64" s="66">
         <v>61</v>
       </c>
-      <c r="B64" s="77" t="s">
-        <v>56</v>
+      <c r="B64" s="64" t="s">
+        <v>55</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>20</v>
@@ -35579,18 +35576,18 @@
         <v>18</v>
       </c>
       <c r="I64" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J64" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1">
-      <c r="A65" s="79">
+      <c r="A65" s="66">
         <v>62</v>
       </c>
-      <c r="B65" s="77" t="s">
-        <v>101</v>
+      <c r="B65" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>20</v>
@@ -35612,7 +35609,7 @@
         <v>18</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J65" s="23">
         <v>13</v>
@@ -35626,8 +35623,9 @@
       <c r="C66" s="12"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="25" t="s">
-        <v>23</v>
+      <c r="F66" s="25">
+        <f>SUM(F4:F65)</f>
+        <v>117</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="25">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B15B41-D5A2-466E-AF9A-49407736B20B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAF5998-8152-4DEA-8469-CDB94A2D2079}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -33570,7 +33570,7 @@
   </sheetPr>
   <dimension ref="A2:T133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78129BF8-802B-46F8-8792-2143E6491B17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAF5998-8152-4DEA-8469-CDB94A2D2079}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Số ngày (ngày)</t>
-  </si>
-  <si>
-    <t>Tổng thời gian = 104 ngày</t>
   </si>
   <si>
     <t>Design prototype, sequence, use case description "Login" app</t>
@@ -363,9 +360,6 @@
     <t>Design prototype, sequence, use case description "Edit, hide account" website</t>
   </si>
   <si>
-    <t>Test  "View "Forgot password" website &amp; "Change pass word" app</t>
-  </si>
-  <si>
     <t>Test  "Edit, hide account" website</t>
   </si>
   <si>
@@ -384,10 +378,13 @@
     <t>Design prototype, sequence, use case description "View organizational chart" &amp; "Forgot password"  app</t>
   </si>
   <si>
-    <t>Test  "View organizational chart" website &amp; "Forgot password"  app</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Test  "View organizational chart" website</t>
+  </si>
+  <si>
+    <t>Test  "View "Forgot password" app &amp; "Change pass word" app</t>
   </si>
 </sst>
 </file>
@@ -1119,6 +1116,27 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,27 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1496,10 +1493,10 @@
                   <c:v>Test  "View company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>Test  "View "Forgot password" website &amp; "Change pass word" app</c:v>
+                  <c:v>Test  "View "Forgot password" app &amp; "Change pass word" app</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>Test  "View organizational chart" website &amp; "Forgot password"  app</c:v>
+                  <c:v>Test  "View organizational chart" website</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>Test  "View account information" website</c:v>
@@ -3373,10 +3370,10 @@
                   <c:v>Test  "View company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>Test  "View "Forgot password" website &amp; "Change pass word" app</c:v>
+                  <c:v>Test  "View "Forgot password" app &amp; "Change pass word" app</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>Test  "View organizational chart" website &amp; "Forgot password"  app</c:v>
+                  <c:v>Test  "View organizational chart" website</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>Test  "View account information" website</c:v>
@@ -3583,7 +3580,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5513,18 +5510,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
+      <c r="A1" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -5543,16 +5540,16 @@
       <c r="Z1" s="36"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="36"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
@@ -5571,24 +5568,24 @@
       <c r="Z2" s="36"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="39"/>
       <c r="L3" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="67"/>
+      <c r="N3" s="74"/>
       <c r="O3" s="41"/>
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
@@ -5603,24 +5600,24 @@
       <c r="Z3" s="36"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="39"/>
       <c r="L4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="67"/>
+      <c r="N4" s="74"/>
       <c r="O4" s="41"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
@@ -5635,24 +5632,24 @@
       <c r="Z4" s="36"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="39"/>
       <c r="L5" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="67"/>
+        <v>62</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="74"/>
       <c r="O5" s="41"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
@@ -5667,24 +5664,24 @@
       <c r="Z5" s="36"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="39"/>
       <c r="L6" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="67"/>
+      <c r="N6" s="74"/>
       <c r="O6" s="41"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
@@ -5699,24 +5696,24 @@
       <c r="Z6" s="36"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="39"/>
       <c r="L7" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="68">
+        <v>65</v>
+      </c>
+      <c r="M7" s="75">
         <v>43508</v>
       </c>
-      <c r="N7" s="69"/>
+      <c r="N7" s="76"/>
       <c r="O7" s="41"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="36"/>
@@ -5731,16 +5728,16 @@
       <c r="Z7" s="36"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="36"/>
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
@@ -5759,16 +5756,16 @@
       <c r="Z8" s="36"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="36"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
@@ -5787,16 +5784,16 @@
       <c r="Z9" s="36"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="36"/>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
@@ -5815,23 +5812,23 @@
       <c r="Z10" s="36"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="39"/>
-      <c r="L11" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
+      <c r="L11" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="36"/>
@@ -5845,28 +5842,28 @@
       <c r="Z11" s="36"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="39"/>
       <c r="L12" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="44" t="s">
+      <c r="N12" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="44" t="s">
+      <c r="O12" s="44" t="s">
         <v>70</v>
-      </c>
-      <c r="O12" s="44" t="s">
-        <v>71</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -5881,28 +5878,28 @@
       <c r="Z12" s="36"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="39"/>
       <c r="L13" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" s="46">
         <v>43508</v>
       </c>
       <c r="N13" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
@@ -5917,16 +5914,16 @@
       <c r="Z13" s="36"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="39"/>
       <c r="L14" s="49"/>
       <c r="M14" s="50"/>
@@ -5945,16 +5942,16 @@
       <c r="Z14" s="36"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="39"/>
       <c r="L15" s="49"/>
       <c r="M15" s="50"/>
@@ -5973,16 +5970,16 @@
       <c r="Z15" s="36"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="39"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52"/>
@@ -6001,16 +5998,16 @@
       <c r="Z16" s="36"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="39"/>
       <c r="L17" s="51"/>
       <c r="M17" s="52"/>
@@ -6029,16 +6026,16 @@
       <c r="Z17" s="36"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="39"/>
       <c r="L18" s="51"/>
       <c r="M18" s="52"/>
@@ -6057,16 +6054,16 @@
       <c r="Z18" s="36"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="39"/>
       <c r="L19" s="51"/>
       <c r="M19" s="52"/>
@@ -6085,16 +6082,16 @@
       <c r="Z19" s="36"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="39"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52"/>
@@ -33573,8 +33570,8 @@
   </sheetPr>
   <dimension ref="A2:T133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33597,10 +33594,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -33619,21 +33616,21 @@
         <v>14</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="79">
+      <c r="A4" s="66">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>24</v>
+      <c r="B4" s="61" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>17</v>
@@ -33655,18 +33652,18 @@
         <v>9</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="79">
+      <c r="A5" s="66">
         <v>2</v>
       </c>
-      <c r="B5" s="74" t="s">
-        <v>25</v>
+      <c r="B5" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>17</v>
@@ -33688,18 +33685,18 @@
         <v>9</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="79">
+      <c r="A6" s="66">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>26</v>
+      <c r="B6" s="61" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>17</v>
@@ -33721,18 +33718,18 @@
         <v>10</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="79">
+      <c r="A7" s="66">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
-        <v>27</v>
+      <c r="B7" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>17</v>
@@ -33754,18 +33751,18 @@
         <v>10</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="79">
+      <c r="A8" s="66">
         <v>5</v>
       </c>
-      <c r="B8" s="74" t="s">
-        <v>28</v>
+      <c r="B8" s="61" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>17</v>
@@ -33787,18 +33784,18 @@
         <v>8</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="79">
+      <c r="A9" s="66">
         <v>6</v>
       </c>
-      <c r="B9" s="74" t="s">
-        <v>29</v>
+      <c r="B9" s="61" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>17</v>
@@ -33820,18 +33817,18 @@
         <v>8</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="79">
+      <c r="A10" s="66">
         <v>7</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>33</v>
+      <c r="B10" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -33853,18 +33850,18 @@
         <v>10</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="23">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="79">
+      <c r="A11" s="66">
         <v>8</v>
       </c>
-      <c r="B11" s="74" t="s">
-        <v>30</v>
+      <c r="B11" s="61" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>17</v>
@@ -33886,18 +33883,18 @@
         <v>8</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="79">
+      <c r="A12" s="66">
         <v>9</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>32</v>
+      <c r="B12" s="61" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>17</v>
@@ -33919,18 +33916,18 @@
         <v>9</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="79">
+      <c r="A13" s="66">
         <v>10</v>
       </c>
-      <c r="B13" s="74" t="s">
-        <v>31</v>
+      <c r="B13" s="61" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>17</v>
@@ -33952,18 +33949,18 @@
         <v>9</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="79">
+      <c r="A14" s="66">
         <v>11</v>
       </c>
-      <c r="B14" s="74" t="s">
-        <v>34</v>
+      <c r="B14" s="61" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>17</v>
@@ -33985,18 +33982,18 @@
         <v>9</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="79">
+      <c r="A15" s="66">
         <v>12</v>
       </c>
-      <c r="B15" s="74" t="s">
-        <v>35</v>
+      <c r="B15" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>17</v>
@@ -34018,18 +34015,18 @@
         <v>7</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="79">
+      <c r="A16" s="66">
         <v>13</v>
       </c>
-      <c r="B16" s="74" t="s">
-        <v>36</v>
+      <c r="B16" s="61" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>17</v>
@@ -34051,18 +34048,18 @@
         <v>7</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" s="23">
         <v>10.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24">
-      <c r="A17" s="79">
+      <c r="A17" s="66">
         <v>14</v>
       </c>
-      <c r="B17" s="75" t="s">
-        <v>98</v>
+      <c r="B17" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>17</v>
@@ -34084,18 +34081,18 @@
         <v>7</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" s="23">
         <v>6.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24">
-      <c r="A18" s="79">
+      <c r="A18" s="66">
         <v>15</v>
       </c>
-      <c r="B18" s="74" t="s">
-        <v>106</v>
+      <c r="B18" s="61" t="s">
+        <v>104</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>17</v>
@@ -34117,18 +34114,18 @@
         <v>7</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="79">
+      <c r="A19" s="66">
         <v>16</v>
       </c>
-      <c r="B19" s="74" t="s">
-        <v>37</v>
+      <c r="B19" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
@@ -34150,18 +34147,18 @@
         <v>9</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20" s="79">
+      <c r="A20" s="66">
         <v>17</v>
       </c>
-      <c r="B20" s="74" t="s">
-        <v>38</v>
+      <c r="B20" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>17</v>
@@ -34183,18 +34180,18 @@
         <v>18</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="23">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A21" s="79">
+      <c r="A21" s="66">
         <v>18</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>99</v>
+      <c r="B21" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>17</v>
@@ -34216,18 +34213,18 @@
         <v>9</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A22" s="79">
+      <c r="A22" s="66">
         <v>19</v>
       </c>
-      <c r="B22" s="74" t="s">
-        <v>39</v>
+      <c r="B22" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>17</v>
@@ -34249,18 +34246,18 @@
         <v>18</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A23" s="79">
+      <c r="A23" s="66">
         <v>20</v>
       </c>
-      <c r="B23" s="74" t="s">
-        <v>40</v>
+      <c r="B23" s="61" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>17</v>
@@ -34282,18 +34279,18 @@
         <v>18</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A24" s="79">
+      <c r="A24" s="66">
         <v>21</v>
       </c>
-      <c r="B24" s="74" t="s">
-        <v>41</v>
+      <c r="B24" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>17</v>
@@ -34315,18 +34312,18 @@
         <v>18</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="23">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A25" s="79">
+      <c r="A25" s="66">
         <v>22</v>
       </c>
-      <c r="B25" s="76" t="s">
-        <v>78</v>
+      <c r="B25" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>16</v>
@@ -34348,16 +34345,16 @@
         <v>27</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A26" s="79">
+      <c r="A26" s="66">
         <v>23</v>
       </c>
-      <c r="B26" s="76" t="s">
-        <v>79</v>
+      <c r="B26" s="63" t="s">
+        <v>78</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>16</v>
@@ -34379,16 +34376,16 @@
         <v>27</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A27" s="79">
+      <c r="A27" s="66">
         <v>24</v>
       </c>
-      <c r="B27" s="76" t="s">
-        <v>80</v>
+      <c r="B27" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>16</v>
@@ -34410,16 +34407,16 @@
         <v>27</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="A28" s="79">
+      <c r="A28" s="66">
         <v>25</v>
       </c>
-      <c r="B28" s="76" t="s">
-        <v>82</v>
+      <c r="B28" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>16</v>
@@ -34441,16 +34438,16 @@
         <v>27</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
-      <c r="A29" s="79">
+      <c r="A29" s="66">
         <v>26</v>
       </c>
-      <c r="B29" s="76" t="s">
-        <v>81</v>
+      <c r="B29" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>16</v>
@@ -34472,16 +34469,16 @@
         <v>36</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="79">
+      <c r="A30" s="66">
         <v>27</v>
       </c>
-      <c r="B30" s="76" t="s">
-        <v>103</v>
+      <c r="B30" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>16</v>
@@ -34503,16 +34500,16 @@
         <v>36</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A31" s="79">
+      <c r="A31" s="66">
         <v>28</v>
       </c>
-      <c r="B31" s="76" t="s">
-        <v>83</v>
+      <c r="B31" s="63" t="s">
+        <v>82</v>
       </c>
       <c r="C31" s="59" t="s">
         <v>18</v>
@@ -34534,18 +34531,18 @@
         <v>27</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" s="23">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A32" s="79">
+      <c r="A32" s="66">
         <v>29</v>
       </c>
-      <c r="B32" s="76" t="s">
-        <v>84</v>
+      <c r="B32" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="C32" s="59" t="s">
         <v>18</v>
@@ -34567,18 +34564,18 @@
         <v>27</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32" s="23">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A33" s="79">
+      <c r="A33" s="66">
         <v>30</v>
       </c>
-      <c r="B33" s="76" t="s">
-        <v>85</v>
+      <c r="B33" s="63" t="s">
+        <v>84</v>
       </c>
       <c r="C33" s="59" t="s">
         <v>18</v>
@@ -34600,18 +34597,18 @@
         <v>27</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" s="23">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
-      <c r="A34" s="79">
+      <c r="A34" s="66">
         <v>31</v>
       </c>
-      <c r="B34" s="76" t="s">
-        <v>86</v>
+      <c r="B34" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="C34" s="59" t="s">
         <v>18</v>
@@ -34633,18 +34630,18 @@
         <v>27</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" s="23">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="79">
+      <c r="A35" s="66">
         <v>32</v>
       </c>
-      <c r="B35" s="76" t="s">
-        <v>87</v>
+      <c r="B35" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="C35" s="59" t="s">
         <v>18</v>
@@ -34666,18 +34663,18 @@
         <v>36</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J35" s="23">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="79">
+      <c r="A36" s="66">
         <v>33</v>
       </c>
-      <c r="B36" s="76" t="s">
-        <v>104</v>
+      <c r="B36" s="63" t="s">
+        <v>102</v>
       </c>
       <c r="C36" s="59" t="s">
         <v>18</v>
@@ -34699,18 +34696,18 @@
         <v>36</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J36" s="23">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A37" s="79">
+      <c r="A37" s="66">
         <v>34</v>
       </c>
-      <c r="B37" s="76" t="s">
-        <v>90</v>
+      <c r="B37" s="63" t="s">
+        <v>89</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>19</v>
@@ -34732,19 +34729,19 @@
         <v>45</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
-      <c r="A38" s="79">
+      <c r="A38" s="66">
         <v>35</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="D38" s="10">
         <v>43831</v>
@@ -34763,16 +34760,16 @@
         <v>45</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="79">
+      <c r="A39" s="66">
         <v>36</v>
       </c>
-      <c r="B39" s="76" t="s">
-        <v>91</v>
+      <c r="B39" s="63" t="s">
+        <v>90</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>19</v>
@@ -34794,16 +34791,16 @@
         <v>45</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="79">
+      <c r="A40" s="66">
         <v>37</v>
       </c>
-      <c r="B40" s="76" t="s">
-        <v>92</v>
+      <c r="B40" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>19</v>
@@ -34825,16 +34822,16 @@
         <v>36</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
-      <c r="A41" s="79">
+      <c r="A41" s="66">
         <v>38</v>
       </c>
-      <c r="B41" s="76" t="s">
-        <v>93</v>
+      <c r="B41" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>19</v>
@@ -34856,16 +34853,16 @@
         <v>36</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
-      <c r="A42" s="79">
+      <c r="A42" s="66">
         <v>39</v>
       </c>
-      <c r="B42" s="76" t="s">
-        <v>94</v>
+      <c r="B42" s="63" t="s">
+        <v>93</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>19</v>
@@ -34887,16 +34884,16 @@
         <v>9</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
-      <c r="A43" s="79">
+      <c r="A43" s="66">
         <v>40</v>
       </c>
-      <c r="B43" s="76" t="s">
-        <v>105</v>
+      <c r="B43" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>19</v>
@@ -34918,16 +34915,16 @@
         <v>9</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1">
-      <c r="A44" s="79">
+      <c r="A44" s="66">
         <v>41</v>
       </c>
-      <c r="B44" s="76" t="s">
-        <v>95</v>
+      <c r="B44" s="63" t="s">
+        <v>94</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>19</v>
@@ -34949,16 +34946,16 @@
         <v>9</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44" s="23"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="79">
+      <c r="A45" s="66">
         <v>42</v>
       </c>
-      <c r="B45" s="76" t="s">
-        <v>96</v>
+      <c r="B45" s="63" t="s">
+        <v>95</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>19</v>
@@ -34980,16 +34977,16 @@
         <v>9</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1">
-      <c r="A46" s="79">
+      <c r="A46" s="66">
         <v>43</v>
       </c>
-      <c r="B46" s="76" t="s">
-        <v>97</v>
+      <c r="B46" s="63" t="s">
+        <v>96</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>19</v>
@@ -35011,16 +35008,16 @@
         <v>18</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1">
-      <c r="A47" s="79">
+      <c r="A47" s="66">
         <v>44</v>
       </c>
-      <c r="B47" s="76" t="s">
-        <v>102</v>
+      <c r="B47" s="63" t="s">
+        <v>100</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>19</v>
@@ -35042,16 +35039,16 @@
         <v>18</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1">
-      <c r="A48" s="79">
+      <c r="A48" s="66">
         <v>45</v>
       </c>
-      <c r="B48" s="77" t="s">
-        <v>42</v>
+      <c r="B48" s="64" t="s">
+        <v>41</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>20</v>
@@ -35073,16 +35070,16 @@
         <v>9</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1">
-      <c r="A49" s="79">
+      <c r="A49" s="66">
         <v>46</v>
       </c>
-      <c r="B49" s="77" t="s">
-        <v>43</v>
+      <c r="B49" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>20</v>
@@ -35104,16 +35101,16 @@
         <v>9</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1">
-      <c r="A50" s="79">
+      <c r="A50" s="66">
         <v>47</v>
       </c>
-      <c r="B50" s="77" t="s">
-        <v>44</v>
+      <c r="B50" s="64" t="s">
+        <v>43</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>20</v>
@@ -35135,16 +35132,16 @@
         <v>9</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J50" s="23"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1">
-      <c r="A51" s="79">
+      <c r="A51" s="66">
         <v>48</v>
       </c>
-      <c r="B51" s="77" t="s">
-        <v>45</v>
+      <c r="B51" s="64" t="s">
+        <v>44</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>20</v>
@@ -35166,16 +35163,16 @@
         <v>9</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" s="23"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
-      <c r="A52" s="79">
+      <c r="A52" s="66">
         <v>49</v>
       </c>
-      <c r="B52" s="77" t="s">
-        <v>46</v>
+      <c r="B52" s="64" t="s">
+        <v>45</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>20</v>
@@ -35197,16 +35194,16 @@
         <v>7</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J52" s="23"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1">
-      <c r="A53" s="79">
+      <c r="A53" s="66">
         <v>50</v>
       </c>
-      <c r="B53" s="77" t="s">
-        <v>47</v>
+      <c r="B53" s="64" t="s">
+        <v>46</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>20</v>
@@ -35228,16 +35225,16 @@
         <v>9</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J53" s="23"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1">
-      <c r="A54" s="79">
+      <c r="A54" s="66">
         <v>51</v>
       </c>
-      <c r="B54" s="77" t="s">
-        <v>48</v>
+      <c r="B54" s="64" t="s">
+        <v>47</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>20</v>
@@ -35259,16 +35256,16 @@
         <v>7</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1">
-      <c r="A55" s="79">
+      <c r="A55" s="66">
         <v>52</v>
       </c>
-      <c r="B55" s="77" t="s">
-        <v>49</v>
+      <c r="B55" s="64" t="s">
+        <v>48</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>20</v>
@@ -35290,16 +35287,16 @@
         <v>9</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J55" s="23"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1">
-      <c r="A56" s="79">
+      <c r="A56" s="66">
         <v>53</v>
       </c>
-      <c r="B56" s="77" t="s">
-        <v>50</v>
+      <c r="B56" s="64" t="s">
+        <v>49</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>20</v>
@@ -35321,16 +35318,16 @@
         <v>9</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J56" s="23"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1">
-      <c r="A57" s="79">
+      <c r="A57" s="66">
         <v>54</v>
       </c>
-      <c r="B57" s="77" t="s">
-        <v>51</v>
+      <c r="B57" s="64" t="s">
+        <v>50</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>20</v>
@@ -35352,16 +35349,16 @@
         <v>9</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J57" s="23"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1">
-      <c r="A58" s="79">
+      <c r="A58" s="66">
         <v>55</v>
       </c>
-      <c r="B58" s="77" t="s">
-        <v>52</v>
+      <c r="B58" s="64" t="s">
+        <v>51</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>20</v>
@@ -35383,16 +35380,16 @@
         <v>8</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J58" s="23"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1">
-      <c r="A59" s="79">
+      <c r="A59" s="66">
         <v>56</v>
       </c>
-      <c r="B59" s="77" t="s">
-        <v>53</v>
+      <c r="B59" s="64" t="s">
+        <v>52</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>20</v>
@@ -35414,18 +35411,18 @@
         <v>8</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J59" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1">
-      <c r="A60" s="79">
+      <c r="A60" s="66">
         <v>57</v>
       </c>
-      <c r="B60" s="77" t="s">
-        <v>54</v>
+      <c r="B60" s="64" t="s">
+        <v>53</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>20</v>
@@ -35447,18 +35444,18 @@
         <v>8</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J60" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1">
-      <c r="A61" s="79">
+      <c r="A61" s="66">
         <v>58</v>
       </c>
-      <c r="B61" s="77" t="s">
-        <v>100</v>
+      <c r="B61" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>20</v>
@@ -35480,18 +35477,18 @@
         <v>14</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J61" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1">
-      <c r="A62" s="79">
+      <c r="A62" s="66">
         <v>59</v>
       </c>
-      <c r="B62" s="77" t="s">
-        <v>107</v>
+      <c r="B62" s="64" t="s">
+        <v>106</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>20</v>
@@ -35513,18 +35510,18 @@
         <v>7</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J62" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1">
-      <c r="A63" s="79">
+      <c r="A63" s="66">
         <v>60</v>
       </c>
-      <c r="B63" s="77" t="s">
-        <v>55</v>
+      <c r="B63" s="64" t="s">
+        <v>54</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>20</v>
@@ -35546,18 +35543,18 @@
         <v>18</v>
       </c>
       <c r="I63" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J63" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
-      <c r="A64" s="79">
+      <c r="A64" s="66">
         <v>61</v>
       </c>
-      <c r="B64" s="77" t="s">
-        <v>56</v>
+      <c r="B64" s="64" t="s">
+        <v>55</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>20</v>
@@ -35579,18 +35576,18 @@
         <v>18</v>
       </c>
       <c r="I64" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J64" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1">
-      <c r="A65" s="79">
+      <c r="A65" s="66">
         <v>62</v>
       </c>
-      <c r="B65" s="77" t="s">
-        <v>101</v>
+      <c r="B65" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>20</v>
@@ -35612,7 +35609,7 @@
         <v>18</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J65" s="23">
         <v>13</v>
@@ -35626,8 +35623,9 @@
       <c r="C66" s="12"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="25" t="s">
-        <v>23</v>
+      <c r="F66" s="25">
+        <f>SUM(F4:F65)</f>
+        <v>117</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="25">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module1_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAF5998-8152-4DEA-8469-CDB94A2D2079}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0570D87E-506B-4CBD-BD81-148C2CE30151}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t>Design prototype, sequence, use case description "Delete company policy" website</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description "View company policy" app</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description "View company policy" website</t>
   </si>
   <si>
     <t>Design prototype, sequence, use case description "View account information" website</t>
@@ -385,6 +379,12 @@
   </si>
   <si>
     <t>Test  "View "Forgot password" app &amp; "Change pass word" app</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description "View company policy" app, "Import file account" website</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description "View company policy" website, , "Search account" website</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1355,10 @@
                   <c:v>Design prototype, sequence, use case description "Delete company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Design prototype, sequence, use case description "View company policy" app</c:v>
+                  <c:v>Design prototype, sequence, use case description "View company policy" app, "Import file account" website</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Design prototype, sequence, use case description "View company policy" website</c:v>
+                  <c:v>Design prototype, sequence, use case description "View company policy" website, , "Search account" website</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Design prototype, sequence, use case description "View "Forgot password" website &amp; "Change pass word" app</c:v>
@@ -1553,7 +1553,7 @@
                   <c:v>43839</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43839</c:v>
+                  <c:v>43841</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43843</c:v>
@@ -3232,10 +3232,10 @@
                   <c:v>Design prototype, sequence, use case description "Delete company policy" website</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Design prototype, sequence, use case description "View company policy" app</c:v>
+                  <c:v>Design prototype, sequence, use case description "View company policy" app, "Import file account" website</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Design prototype, sequence, use case description "View company policy" website</c:v>
+                  <c:v>Design prototype, sequence, use case description "View company policy" website, , "Search account" website</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Design prototype, sequence, use case description "View "Forgot password" website &amp; "Change pass word" app</c:v>
@@ -5511,7 +5511,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
       <c r="A1" s="67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -5580,10 +5580,10 @@
       <c r="J3" s="72"/>
       <c r="K3" s="39"/>
       <c r="L3" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M3" s="73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N3" s="74"/>
       <c r="O3" s="41"/>
@@ -5612,10 +5612,10 @@
       <c r="J4" s="72"/>
       <c r="K4" s="39"/>
       <c r="L4" s="42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N4" s="74"/>
       <c r="O4" s="41"/>
@@ -5644,10 +5644,10 @@
       <c r="J5" s="72"/>
       <c r="K5" s="39"/>
       <c r="L5" s="40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M5" s="73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N5" s="74"/>
       <c r="O5" s="41"/>
@@ -5676,10 +5676,10 @@
       <c r="J6" s="72"/>
       <c r="K6" s="39"/>
       <c r="L6" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M6" s="73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N6" s="74"/>
       <c r="O6" s="41"/>
@@ -5708,7 +5708,7 @@
       <c r="J7" s="72"/>
       <c r="K7" s="39"/>
       <c r="L7" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M7" s="75">
         <v>43508</v>
@@ -5824,7 +5824,7 @@
       <c r="J11" s="72"/>
       <c r="K11" s="39"/>
       <c r="L11" s="77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="78"/>
@@ -5854,16 +5854,16 @@
       <c r="J12" s="72"/>
       <c r="K12" s="39"/>
       <c r="L12" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="44" t="s">
+      <c r="O12" s="44" t="s">
         <v>68</v>
-      </c>
-      <c r="N12" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="44" t="s">
-        <v>70</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -5890,16 +5890,16 @@
       <c r="J13" s="72"/>
       <c r="K13" s="39"/>
       <c r="L13" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M13" s="46">
         <v>43508</v>
       </c>
       <c r="N13" s="47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
@@ -33570,8 +33570,8 @@
   </sheetPr>
   <dimension ref="A2:T133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33595,7 +33595,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -33616,13 +33616,13 @@
         <v>14</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
@@ -33652,7 +33652,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4" s="23">
         <v>15</v>
@@ -33685,7 +33685,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J5" s="23">
         <v>15</v>
@@ -33718,7 +33718,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6" s="23">
         <v>7</v>
@@ -33751,7 +33751,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7" s="23">
         <v>7</v>
@@ -33784,7 +33784,7 @@
         <v>8</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8" s="23">
         <v>15</v>
@@ -33817,7 +33817,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" s="23">
         <v>7</v>
@@ -33850,7 +33850,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J10" s="23">
         <v>21</v>
@@ -33883,7 +33883,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J11" s="23">
         <v>7</v>
@@ -33916,7 +33916,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J12" s="23">
         <v>16</v>
@@ -33949,7 +33949,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13" s="23">
         <v>16</v>
@@ -33982,18 +33982,18 @@
         <v>9</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J14" s="23">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    <row r="15" spans="1:10" ht="24">
       <c r="A15" s="66">
         <v>12</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>17</v>
@@ -34015,27 +34015,27 @@
         <v>7</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J15" s="23">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" spans="1:10" ht="24">
       <c r="A16" s="66">
         <v>13</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="10">
-        <v>43839</v>
+        <v>43841</v>
       </c>
       <c r="E16" s="10">
-        <v>43840</v>
+        <v>43842</v>
       </c>
       <c r="F16" s="24">
         <f t="shared" si="0"/>
@@ -34048,18 +34048,18 @@
         <v>7</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J16" s="23">
         <v>10.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="24">
+    <row r="17" spans="1:10" ht="36" customHeight="1">
       <c r="A17" s="66">
         <v>14</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>17</v>
@@ -34081,7 +34081,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J17" s="23">
         <v>6.5</v>
@@ -34092,7 +34092,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>17</v>
@@ -34114,7 +34114,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J18" s="23">
         <v>8</v>
@@ -34125,7 +34125,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
@@ -34147,7 +34147,7 @@
         <v>9</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J19" s="23">
         <v>8</v>
@@ -34158,7 +34158,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>17</v>
@@ -34180,7 +34180,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" s="23">
         <v>13</v>
@@ -34191,7 +34191,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>17</v>
@@ -34213,7 +34213,7 @@
         <v>9</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J21" s="23">
         <v>14</v>
@@ -34224,7 +34224,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>17</v>
@@ -34246,7 +34246,7 @@
         <v>18</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J22" s="23">
         <v>15</v>
@@ -34257,7 +34257,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>17</v>
@@ -34279,7 +34279,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J23" s="23">
         <v>14</v>
@@ -34290,7 +34290,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>17</v>
@@ -34312,7 +34312,7 @@
         <v>18</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J24" s="23">
         <v>20</v>
@@ -34323,7 +34323,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>16</v>
@@ -34345,7 +34345,7 @@
         <v>27</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J25" s="23"/>
     </row>
@@ -34354,7 +34354,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>16</v>
@@ -34376,7 +34376,7 @@
         <v>27</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J26" s="23"/>
     </row>
@@ -34385,7 +34385,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>16</v>
@@ -34407,7 +34407,7 @@
         <v>27</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J27" s="23"/>
     </row>
@@ -34416,7 +34416,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>16</v>
@@ -34438,7 +34438,7 @@
         <v>27</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J28" s="23"/>
     </row>
@@ -34447,7 +34447,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>16</v>
@@ -34469,7 +34469,7 @@
         <v>36</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J29" s="23"/>
     </row>
@@ -34478,7 +34478,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>16</v>
@@ -34500,7 +34500,7 @@
         <v>36</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J30" s="23"/>
     </row>
@@ -34509,7 +34509,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="59" t="s">
         <v>18</v>
@@ -34531,7 +34531,7 @@
         <v>27</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J31" s="23">
         <v>22</v>
@@ -34542,7 +34542,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="59" t="s">
         <v>18</v>
@@ -34564,7 +34564,7 @@
         <v>27</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J32" s="23">
         <v>22</v>
@@ -34575,7 +34575,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="59" t="s">
         <v>18</v>
@@ -34597,7 +34597,7 @@
         <v>27</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J33" s="23">
         <v>28</v>
@@ -34608,7 +34608,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="59" t="s">
         <v>18</v>
@@ -34630,7 +34630,7 @@
         <v>27</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J34" s="23">
         <v>28</v>
@@ -34641,7 +34641,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="59" t="s">
         <v>18</v>
@@ -34663,7 +34663,7 @@
         <v>36</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J35" s="23">
         <v>25</v>
@@ -34674,7 +34674,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" s="59" t="s">
         <v>18</v>
@@ -34696,7 +34696,7 @@
         <v>36</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J36" s="23">
         <v>27</v>
@@ -34707,7 +34707,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>19</v>
@@ -34729,7 +34729,7 @@
         <v>45</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J37" s="23"/>
     </row>
@@ -34738,10 +34738,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="10">
         <v>43831</v>
@@ -34760,7 +34760,7 @@
         <v>45</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J38" s="23"/>
     </row>
@@ -34769,7 +34769,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>19</v>
@@ -34791,7 +34791,7 @@
         <v>45</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J39" s="23"/>
     </row>
@@ -34800,7 +34800,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>19</v>
@@ -34822,7 +34822,7 @@
         <v>36</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40" s="23"/>
     </row>
@@ -34831,7 +34831,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>19</v>
@@ -34853,7 +34853,7 @@
         <v>36</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J41" s="23"/>
     </row>
@@ -34862,7 +34862,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>19</v>
@@ -34884,7 +34884,7 @@
         <v>9</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J42" s="23"/>
     </row>
@@ -34893,7 +34893,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>19</v>
@@ -34915,7 +34915,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J43" s="23"/>
     </row>
@@ -34924,7 +34924,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>19</v>
@@ -34946,7 +34946,7 @@
         <v>9</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J44" s="23"/>
     </row>
@@ -34955,7 +34955,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>19</v>
@@ -34977,7 +34977,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J45" s="23"/>
     </row>
@@ -34986,7 +34986,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>19</v>
@@ -35008,7 +35008,7 @@
         <v>18</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J46" s="23"/>
     </row>
@@ -35017,7 +35017,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>19</v>
@@ -35039,7 +35039,7 @@
         <v>18</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J47" s="23"/>
     </row>
@@ -35048,7 +35048,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>20</v>
@@ -35070,7 +35070,7 @@
         <v>9</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J48" s="23"/>
     </row>
@@ -35079,7 +35079,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>20</v>
@@ -35101,7 +35101,7 @@
         <v>9</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J49" s="23"/>
     </row>
@@ -35110,7 +35110,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>20</v>
@@ -35132,7 +35132,7 @@
         <v>9</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J50" s="23"/>
     </row>
@@ -35141,7 +35141,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>20</v>
@@ -35163,7 +35163,7 @@
         <v>9</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J51" s="23"/>
     </row>
@@ -35172,7 +35172,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>20</v>
@@ -35194,7 +35194,7 @@
         <v>7</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J52" s="23"/>
     </row>
@@ -35203,7 +35203,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>20</v>
@@ -35225,7 +35225,7 @@
         <v>9</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J53" s="23"/>
     </row>
@@ -35234,7 +35234,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>20</v>
@@ -35256,7 +35256,7 @@
         <v>7</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J54" s="23"/>
     </row>
@@ -35265,7 +35265,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>20</v>
@@ -35287,7 +35287,7 @@
         <v>9</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J55" s="23"/>
     </row>
@@ -35296,7 +35296,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>20</v>
@@ -35318,7 +35318,7 @@
         <v>9</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J56" s="23"/>
     </row>
@@ -35327,7 +35327,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>20</v>
@@ -35349,7 +35349,7 @@
         <v>9</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J57" s="23"/>
     </row>
@@ -35358,7 +35358,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>20</v>
@@ -35380,7 +35380,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J58" s="23"/>
     </row>
@@ -35389,7 +35389,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>20</v>
@@ -35411,7 +35411,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J59" s="23">
         <v>14</v>
@@ -35422,7 +35422,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>20</v>
@@ -35444,7 +35444,7 @@
         <v>8</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J60" s="23">
         <v>11</v>
@@ -35455,7 +35455,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>20</v>
@@ -35477,7 +35477,7 @@
         <v>14</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J61" s="23">
         <v>10</v>
@@ -35488,7 +35488,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>20</v>
@@ -35510,7 +35510,7 @@
         <v>7</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J62" s="23">
         <v>16</v>
@@ -35521,7 +35521,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>20</v>
@@ -35543,7 +35543,7 @@
         <v>18</v>
       </c>
       <c r="I63" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J63" s="23">
         <v>6</v>
@@ -35554,7 +35554,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>20</v>
@@ -35576,7 +35576,7 @@
         <v>18</v>
       </c>
       <c r="I64" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J64" s="23">
         <v>12</v>
@@ -35587,7 +35587,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>20</v>
@@ -35609,7 +35609,7 @@
         <v>18</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J65" s="23">
         <v>13</v>
